--- a/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -70,19 +66,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -104,7 +91,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -469,7 +456,7 @@
   </sheetPr>
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -479,7 +466,7 @@
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,7 +519,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -559,7 +546,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -586,7 +573,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -613,7 +600,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -640,7 +627,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -667,7 +654,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -694,7 +681,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -721,7 +708,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -748,7 +735,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -775,7 +762,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -802,7 +789,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -829,7 +816,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -856,7 +843,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -883,7 +870,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -910,7 +897,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -937,7 +924,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -964,7 +951,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -991,7 +978,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1005,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1032,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1059,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1086,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1113,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1140,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1167,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1194,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1221,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1248,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1275,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1302,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1329,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1356,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1383,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1410,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1437,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1464,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1491,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1518,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1545,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1572,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1599,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1626,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1653,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1680,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1707,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1734,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1761,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1788,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1815,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1842,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1869,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1896,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1923,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1950,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1977,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2004,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2031,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2058,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2085,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2112,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2139,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2166,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2193,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2220,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2247,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2274,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2301,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2328,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2355,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2382,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2409,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2436,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2463,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2490,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2517,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2544,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2571,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2598,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2625,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2652,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2679,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2706,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2733,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2760,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2787,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2814,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2841,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2868,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2895,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2922,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2949,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2976,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3003,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3030,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3057,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3084,7 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3111,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3138,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3165,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3192,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3219,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3246,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3273,7 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3300,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3327,7 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3354,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3381,7 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3408,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3435,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3462,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3489,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3516,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3543,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3570,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3597,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3624,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3651,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3678,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3705,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3732,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3759,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3786,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3813,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3840,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3867,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3894,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3921,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3948,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3975,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4002,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4029,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4056,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4083,7 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4110,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4137,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4164,7 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4191,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4218,7 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4245,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4272,7 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4299,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4326,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4353,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4380,7 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4407,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4434,7 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4461,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4488,7 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4515,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4542,7 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4569,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4596,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4623,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4650,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4690,7 +4677,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4704,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4731,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4758,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4785,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4812,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4839,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4866,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4893,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4920,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4947,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4974,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5001,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5028,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5055,7 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5082,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5109,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5136,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5163,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5190,7 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5217,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5244,7 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5271,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5298,7 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5325,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5352,7 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5379,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5406,7 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5433,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5460,7 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5487,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5514,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5541,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5568,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5595,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5622,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5649,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5676,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5703,7 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5730,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5757,7 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5784,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5811,7 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5838,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5865,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5892,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5919,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5946,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5973,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6000,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6027,7 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6054,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6081,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6108,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6135,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6162,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6189,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6216,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6243,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6270,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6297,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6324,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6351,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6378,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6405,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6432,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6459,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6486,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6513,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6540,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6567,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6594,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6621,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6648,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6675,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6702,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6729,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6756,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6783,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6810,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6837,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6864,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6891,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6918,7 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6945,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6972,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7012,7 +6999,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7026,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7053,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7080,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7107,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7134,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7161,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7188,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7215,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7242,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7269,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7296,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7323,7 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7350,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7377,7 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7404,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7431,7 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7458,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7485,7 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7512,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7539,7 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7566,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7593,7 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7620,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7647,7 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7674,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7701,7 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7728,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7755,7 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7782,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7809,7 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7836,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7863,7 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7890,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7917,7 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7944,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7971,7 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8011,7 +7998,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8038,7 +8025,7 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8052,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8079,7 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8106,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8133,7 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8160,7 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8187,7 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8214,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8254,7 +8241,7 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8268,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8295,7 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8322,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8362,7 +8349,7 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8376,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8403,7 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8430,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8457,7 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8497,7 +8484,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8511,7 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8538,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8565,7 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8592,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8619,7 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8646,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8673,7 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8700,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8727,7 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
@@ -8767,11 +8754,11 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -499,12 +499,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>221171</t>
+          <t>180804</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>فادي ياسر جورج تادرس</t>
+          <t>وسام عبد الناصر عباس عبد الهادى</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -514,24 +514,24 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>221172</t>
+          <t>181004</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>فارس محمد رجب احمد العدوي</t>
+          <t xml:space="preserve">محمد الحافظ عبد الماجد هارون عبد الماجد      </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -541,24 +541,24 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>221173</t>
+          <t>181013</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>فاطمة الزهراء  محمد ابراهيم راجح</t>
+          <t>حسين ميخائيل صليبا المعايعه</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -568,24 +568,24 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>221175</t>
+          <t>190314</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>فريده عمرو محمد عماره</t>
+          <t>مازن محمد امين امين محمد</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -595,24 +595,24 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>221176</t>
+          <t>190540</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>قاسم محمد عابد ربيع السحيتى</t>
+          <t>ليان بنت خالد بن سعد المقذلى</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -622,24 +622,24 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>221177</t>
+          <t>190796</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>كريم احمد محمد جمال الدين محمد امين</t>
+          <t>اسيا ادريس ابراهيم ادريس</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -649,24 +649,24 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>221180</t>
+          <t>190801</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>لمار هيثم محمد فاروق محمد</t>
+          <t>صالح سفيان محمد عثمان عابدون</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>221181</t>
+          <t>190803</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>لوجين محمد صبري محمد سعد القاضي</t>
+          <t>عبد الله كريم احمد الضمور</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -703,24 +703,24 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>221182</t>
+          <t>190807</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ليديا موريس أنيس سعيد</t>
+          <t xml:space="preserve">ابراهيم عبد الجليل عبد الرحمن ابراهيم </t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -730,24 +730,24 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>221184</t>
+          <t>190846</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>ماجده محمود عبدالهادي محمد محمود</t>
+          <t>محمد ايهاب عبد الله حماد</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -757,24 +757,24 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>221185</t>
+          <t>190874</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>مايكل عادل ميخائيل فهمى شنوده</t>
+          <t>محمد امين محمود حسن</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -784,24 +784,24 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>221186</t>
+          <t>190922</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>محسن محمود محسن محود السيد</t>
+          <t>محمد عماد الدوس</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -811,24 +811,24 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>221187</t>
+          <t>190929</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>محمد  عبد الفتاح  عبد البديع فياض</t>
+          <t>سلطان فازع على صغير</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -838,24 +838,24 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>221188</t>
+          <t>190968</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>محمد ابراهيم عبد الغفار ابووازن</t>
+          <t>احمد سليم بشير عجوز</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -865,24 +865,24 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>221189</t>
+          <t>190975</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد محمد جمال الدين محمد امين</t>
+          <t>افنان صلاح عيسى حمد محمد</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -892,24 +892,24 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>221190</t>
+          <t>190981</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>محمد حمدي محمد صقر الهتير</t>
+          <t>عائشه موسى الراقى مهدى</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -919,24 +919,24 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>221191</t>
+          <t>191052</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>محمد خلف  سلمان  سلطان</t>
+          <t>احمد رشاد حميد</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -946,24 +946,24 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>221192</t>
+          <t>191055</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>محمد شريف سمير مصطفى الزهوى</t>
+          <t>بسام محمد سالم نويران</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>221193</t>
+          <t>191061</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>محمد صلاح رمضان عبد الحميد</t>
+          <t xml:space="preserve"> Maya Naser Saleem Abubaker</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1000,24 +1000,24 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>221194</t>
+          <t>191062</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>محمد عبد الكريم رمضان بكري سالم</t>
+          <t>احمد ابراهيم رمضان خضر</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1027,24 +1027,24 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>221195</t>
+          <t>191088</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>محمد عبدالحليم محمد عمار</t>
+          <t>عبد الرحمن عبود بشير محمد</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1054,24 +1054,24 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>221196</t>
+          <t>191109</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>محمد عصام جابر رمضان</t>
+          <t>ريان بن احمد على العواجى</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1081,24 +1081,24 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>221197</t>
+          <t>191119</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>محمد علاء مدحت حسن</t>
+          <t xml:space="preserve">عمر بلال احمد الشدفان </t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1108,24 +1108,24 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>221198</t>
+          <t>191123</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>محمد عمادالدين محمد ابوزيد</t>
+          <t>حسين سعدأمين</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1135,24 +1135,24 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>221199</t>
+          <t>191125</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>محمد عمرو حسين منصور</t>
+          <t xml:space="preserve">احمد رائد محمد رفيق النتشه </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1162,24 +1162,24 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>221200</t>
+          <t>191131</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>محمد نبيل عبدالملك احمد ابو الخير</t>
+          <t xml:space="preserve">المثنى جاد عاطف  </t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -1189,24 +1189,24 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>221201</t>
+          <t>191186</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>محمد وائل ادريس محمود</t>
+          <t>ايمان ياسر محمد النونو</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1216,24 +1216,24 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>221203</t>
+          <t>191258</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>مريم  عمرو  محمد عادل  عبد الرحمن</t>
+          <t xml:space="preserve">نايف محمد على الصغير الجلاب </t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1243,24 +1243,24 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>221204</t>
+          <t>191375</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>مريم أسامة نشأت بسطا</t>
+          <t xml:space="preserve">هديل نصر الحريرى </t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1270,24 +1270,24 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>221205</t>
+          <t>191444</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>مريم حسين محمد عبدالسلام</t>
+          <t>انس ناصر الشبراوى محمد محمد</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1297,24 +1297,24 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>221208</t>
+          <t>191478</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>مصطفى جمال محمد معتمد</t>
+          <t>احمد عبد الرحمن محمد سامر النجار</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1324,24 +1324,24 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>221211</t>
+          <t>191480</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>ملك مصطفي ابراهيم ابراهيم</t>
+          <t xml:space="preserve">محمد عمر سلامه الحراسيس </t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1351,24 +1351,24 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>221212</t>
+          <t>191502</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>منة مدحت سالم علي</t>
+          <t>مرام حاتم عبد الله عباس</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1378,24 +1378,24 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>221213</t>
+          <t>200003</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>منه كريم السعيد الملخاني</t>
+          <t>ابراهيم جاد ابراهيم محمود</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1405,24 +1405,24 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>221215</t>
+          <t>200116</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>مي محمد عبد المنعم  محمد بكر</t>
+          <t>اميره ابراهيم محمد</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1432,24 +1432,24 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>221216</t>
+          <t>200163</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>ميار  طه يوسف عمار</t>
+          <t>بسملة احمد عبدالمنعم خالد</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1459,24 +1459,24 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>221218</t>
+          <t>200228</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>مينا مدحت خلف ناشد  سليمان</t>
+          <t>رانا حسام رمضان محمد</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1486,24 +1486,24 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>221220</t>
+          <t>200344</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>نادين محمود سعيد زكي</t>
+          <t>شريهان عبد الهادى السيد ابراهيم محمد</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1513,24 +1513,24 @@
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>221221</t>
+          <t>200359</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ندي ناجي عبدالغني هلال</t>
+          <t>صلاح الدين عرفان صلاح عرفان محمد</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1540,24 +1540,24 @@
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>221222</t>
+          <t>200405</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>نور  أحمد  سمير علي</t>
+          <t>عصام طه محمد صلاح الدين طه حسنين</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -1567,24 +1567,24 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>221223</t>
+          <t>200423</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>نور احمد جابر احمد</t>
+          <t>عمر خالد احمد مختار هيكل</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1594,24 +1594,24 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>221226</t>
+          <t>200468</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>نورا هاني أحمد سيف</t>
+          <t>فريد مبروك حسين احمد ابوعامر</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1621,24 +1621,24 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>221230</t>
+          <t>200490</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>هاله احمد صلاح القاضى</t>
+          <t>Kerlos Saber Kerlos Labib</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1648,24 +1648,24 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>221231</t>
+          <t>200491</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>هدى ابوالخير  عبدالعظيم سكرمه</t>
+          <t>كيرلس صفوت واصفي سوريال</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1675,24 +1675,24 @@
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>221236</t>
+          <t>200628</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ياسين شاهين محمد خليفة</t>
+          <t>منار سعيد حسن حسن الديب</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1702,24 +1702,24 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>221238</t>
+          <t>200708</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>يوسف  ابراهيم  محمود محمود محمد سالم</t>
+          <t>نورهان مجدى على احمد ابو شعير</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -1729,24 +1729,24 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>221239</t>
+          <t>200727</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>يوسف  احمد احمد النجار</t>
+          <t>هبه محمد محمود عبدالظاهر احمد</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1756,24 +1756,24 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>221240</t>
+          <t>200742</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>يوسف  احمد السيد رفاعي دراز</t>
+          <t>ياسمين رفيق عبده التابعى يحيى</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -1783,24 +1783,24 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>221241</t>
+          <t>200744</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>يوسف  ايهاب  محمد  مصطفي</t>
+          <t xml:space="preserve"> ياسمين مصطفى ابراهيم على السيسى</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1810,24 +1810,24 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>221242</t>
+          <t>200792</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>يوسف الشقيري عبدالفضيل السيد</t>
+          <t>روان زكريا صالح</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>221243</t>
+          <t>200804</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>يوسف أسامه يسين عبد العظيم</t>
+          <t>Asma Haji Osman Omer</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1864,24 +1864,24 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>221244</t>
+          <t>200824</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>يوسف أيمن أحمد يوسف الجعار</t>
+          <t>محمد نظام محمد القرا</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1891,24 +1891,24 @@
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2A</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>221245</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>يوسف شعبان عبدالقوي عبدالله</t>
+          <t>دانيه مصطفى سالم يوسف</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1918,24 +1918,24 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>221246</t>
+          <t>200852</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>جوليا سامى لبيب عبد الملك</t>
+          <t xml:space="preserve">مجد الدين محمد الجماله </t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1945,24 +1945,24 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>221249</t>
+          <t>200858</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ليان محمد خليل لافي</t>
+          <t xml:space="preserve">فارس اسامه محمد فارس اسليم  </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -1972,24 +1972,24 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>221251</t>
+          <t>200866</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>دانيه رائد عبد الكريم طحاينه</t>
+          <t>ليلى مروان على شعت</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -1999,24 +1999,24 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>221253</t>
+          <t>200869</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>عبد الله محمد عبد الجليل توب</t>
+          <t>انس الامام</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2026,24 +2026,24 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>221258</t>
+          <t>200877</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>محمود نضال محمود حموده</t>
+          <t xml:space="preserve">الاء خالد السماعيل </t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
@@ -2053,24 +2053,24 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>221259</t>
+          <t>200897</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ظافر فوزان عبد الله الشوبكي</t>
+          <t>ريناد بارى ابراهيم عثمان</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2080,24 +2080,24 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>221261</t>
+          <t>200904</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>على فادى العياش</t>
+          <t>سيف خالد موسى عبيد</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
@@ -2107,24 +2107,24 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>221267</t>
+          <t>200905</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>محمد زكريا محمد عطا الفضيل</t>
+          <t>عبد الله بدر الدين عبد الله احمد</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2134,24 +2134,24 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>B1A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>221269</t>
+          <t>200914</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>عمر فرزت شلهوب</t>
+          <t>زيد محمد سليم السخارنه</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -2161,24 +2161,24 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>221272</t>
+          <t>200917</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>حلا حسان جميل خلف</t>
+          <t>جعفر محمد الجاسم</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2188,24 +2188,24 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>221273</t>
+          <t>200928</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>ريناء دفع الله يوسف اصيل</t>
+          <t>المنذر بسام ابراهيم العطيوى</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -2215,24 +2215,24 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>221275</t>
+          <t>200933</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمار عبد الله محمد العيسوي </t>
+          <t xml:space="preserve">ميس عمر حسن النصيرات </t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2242,24 +2242,24 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>221277</t>
+          <t>200938</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>أحمد عاهد صلاح حمادة</t>
+          <t>محمد جعفر عبده ابو رمان</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -2269,24 +2269,24 @@
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>221280</t>
+          <t>200958</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>سعيد ايوب سعيد حموده</t>
+          <t>على معاذ على عثمان</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2296,24 +2296,24 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>221285</t>
+          <t>200968</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>نزار مهند نزار صبري</t>
+          <t xml:space="preserve">فيصل فهد عمر بافرج </t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -2323,24 +2323,24 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>221287</t>
+          <t>200994</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>زينب عبد الله حسن علي</t>
+          <t>مريم عبد الرزاق جامع</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2350,24 +2350,24 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>221292</t>
+          <t>200997</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>احمد اسامه زكي الساعد</t>
+          <t>حلا محمود حسين العسولى</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
@@ -2377,24 +2377,24 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>221299</t>
+          <t>200999</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>افنان عبدالمولي ابراهيم القماطي</t>
+          <t xml:space="preserve">خليل عاطف محمد خليل طبش </t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2404,24 +2404,24 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>221300</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>جمان خالد عبدالله اعمور</t>
+          <t>اسامه خالد محسن المطار</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -2431,24 +2431,24 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>221301</t>
+          <t>201013</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>جنا علاء شوكت عمرية</t>
+          <t>اياد محمد مؤمن ابو البرغل</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2458,24 +2458,24 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>221302</t>
+          <t>201022</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>عبد الفتاح محمد عبد الزبيدي</t>
+          <t>محمد اسامه محمد حسن عبد الوهاب</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
@@ -2485,24 +2485,24 @@
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>221306</t>
+          <t>201023</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>مزين تمام الدبساوي</t>
+          <t>دانيا ناصر محمد ابو يوسف</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2512,24 +2512,24 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>221309</t>
+          <t>201026</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>علي محمد آدم مقدم</t>
+          <t>يمنى احمد عبد الله محمد</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -2539,24 +2539,24 @@
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>221313</t>
+          <t>201051</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>نداء ادريس موسي ادم</t>
+          <t>رزان احمد حسن باشماخ</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2566,24 +2566,24 @@
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>221315</t>
+          <t>201065</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد عمار غنام لم يصعد </t>
+          <t>عباده فراس محمد النسور</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
@@ -2593,24 +2593,24 @@
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>221320</t>
+          <t>201080</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ابراهيم سلام المكحل</t>
+          <t>زياد محمد سعد عيد رشوان</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2620,24 +2620,24 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>221327</t>
+          <t>201157</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>سجود رائد محمود ابو طه</t>
+          <t>حلمى عبد الغنى حلمى عبد الغنى جادو</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
@@ -2647,24 +2647,24 @@
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>221330</t>
+          <t>201171</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>سلمى محمد طاهر</t>
+          <t>رحمه احمد محمد على خليل</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -2674,24 +2674,24 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>221334</t>
+          <t>201190</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>حسن نضال سليمان سويطي</t>
+          <t>مازن ضيف الله فالح عمر قنديل</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
@@ -2701,24 +2701,24 @@
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>221335</t>
+          <t>201197</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>حذيفه طريف القطرنجى</t>
+          <t xml:space="preserve">مروان حمزه ابراهيم زقوت </t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -2728,24 +2728,24 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>221339</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>داليا عبد الملك محمد الحسن</t>
+          <t>عدى بشار رياض ابراهيم</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
@@ -2755,24 +2755,24 @@
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>221353</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>حيدر مروان المخزوم</t>
+          <t>خزامه ابراهيم مهاوش الحماد</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -2782,24 +2782,24 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>221372</t>
+          <t>201255</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>ابرار محمد عثمان المصطفى</t>
+          <t>مؤمن محمود محمد الصبيحى</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -2809,24 +2809,24 @@
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>221379</t>
+          <t>201297</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>حسن اشرف حسن فضل المولى</t>
+          <t xml:space="preserve">امال منذر عبد الحميد الخرابشه </t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -2836,24 +2836,24 @@
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>221384</t>
+          <t>201328</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى فهد عبد الباقى  </t>
+          <t xml:space="preserve">اروى مفتاح محمد خليفه  </t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -2863,24 +2863,24 @@
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>221385</t>
+          <t>201337</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشير طراد الحراكىى </t>
+          <t xml:space="preserve">نور حازم نعيم الصمادى  </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2890,24 +2890,24 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>221396</t>
+          <t>201397</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>بشرى عادل عاشور تريبل</t>
+          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -2917,24 +2917,24 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>221399</t>
+          <t>201398</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">موسى جيله حسن </t>
+          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2944,24 +2944,24 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>221402</t>
+          <t>201438</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم سليمان جديد </t>
+          <t>غيث معاذ محمد على</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -2971,24 +2971,24 @@
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>221419</t>
+          <t>201465</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>محمد طه عبد الراضى سليم</t>
+          <t>علياء محمد بكر الكفراوى</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -2998,24 +2998,24 @@
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>221424</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">روند نائل محمد زايدة </t>
+          <t>احمد حسين محمد</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3025,24 +3025,24 @@
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>221434</t>
+          <t>201513</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>محمد اسامه محمد البكري باعلي</t>
+          <t>Abdulhakim Saleh Mohamed Taha</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3052,24 +3052,24 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>221440</t>
+          <t>201529</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>وعد مصعب دفع الله احمد</t>
+          <t>تذكار سليمان عيسى احمد دينار</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3079,24 +3079,24 @@
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>221441</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>شهد مصعب دفع الله احمد</t>
+          <t>صهيب محمد عبد الخالق طه</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3106,24 +3106,24 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>221445</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>نور موفق العينيه</t>
+          <t>اسماء محمد ابراهيم</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3133,24 +3133,24 @@
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>221451</t>
+          <t>201564</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>سيف الدين وليد ابراهيم احمد</t>
+          <t>فاطمه محمود محمد محمود</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3160,24 +3160,24 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>221452</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>ساندى اقلاديوس صبحى بطرس</t>
+          <t>رهف عبد الرحمن سرور</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3187,24 +3187,24 @@
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>221453</t>
+          <t>201632</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>مكسيموس مرقص فاروق غبريال</t>
+          <t>احمد محمد مصطفى على دنيال</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3214,24 +3214,24 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>221454</t>
+          <t>201638</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>كيرلس ريمون منير حزين</t>
+          <t>زياد محمود السيد</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3241,24 +3241,24 @@
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>221455</t>
+          <t>201669</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>احمد خالد فؤاد خالد</t>
+          <t>نورهان السيد حسن محمد القزاز</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3268,24 +3268,24 @@
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>221456</t>
+          <t>201670</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>عمرو اشرف فتحى محمد</t>
+          <t>روان شعبان على محمد ابو هيبه</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3295,24 +3295,24 @@
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>221457</t>
+          <t>201682</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>مؤمن ايهاب فتحى محمد</t>
+          <t>خلود خالد اسماعيل عثمان صالح</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3322,24 +3322,24 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>221462</t>
+          <t>201766</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>روان احمد عبد الفتاح مصطفى احمد مصطفى</t>
+          <t>هاجر عز العرب محمد عبد الواحد العكاد</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3349,24 +3349,24 @@
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>221463</t>
+          <t>201795</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>كريم وليد فتحى ابراهيم السيد</t>
+          <t xml:space="preserve">عائد احمد خليل </t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3376,24 +3376,24 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>221465</t>
+          <t>201823</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>ملك عادل فراج عبد العال</t>
+          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3403,24 +3403,24 @@
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>221467</t>
+          <t>201825</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبدالحي عبدالمنعم الشيباني  </t>
+          <t>الحمزه عماد محمد</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3430,24 +3430,24 @@
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>221469</t>
+          <t>201834</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>لؤي مازن عوني حموده</t>
+          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3457,24 +3457,24 @@
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>221472</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسام عمار عبدالله جعوان  </t>
+          <t>سائد عاصم سليمان اسماعيل الاغا</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3484,24 +3484,24 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>221482</t>
+          <t>201840</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين محمد حسين ابو مغصيب   </t>
+          <t>يونس اسماعيل سليمان</t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3511,24 +3511,24 @@
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>221497</t>
+          <t>201880</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">تركي محمد علي الحاج </t>
+          <t>شيماء عبد الباسط عبد الصمد درويش</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3538,24 +3538,24 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>221499</t>
+          <t>201931</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم خليل محمد غربيه </t>
+          <t xml:space="preserve">بكر عمر محى الدين  </t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3565,24 +3565,24 @@
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>221501</t>
+          <t>201954</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله فتح الرحمن محمد عمر  </t>
+          <t xml:space="preserve">احمد صباح محمد </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3592,24 +3592,24 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>221503</t>
+          <t>201959</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>رند عادل عبد الفتاح شحاده</t>
+          <t xml:space="preserve">صافى محمد عبد </t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3619,24 +3619,24 @@
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>221514</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفي عمر عبدالهادى محمد  </t>
+          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3646,24 +3646,24 @@
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>221516</t>
+          <t>202022</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>فاطمه عبدالحفيظ محمد صالح</t>
+          <t xml:space="preserve">سالى محمد حسن   </t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3673,24 +3673,24 @@
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>221519</t>
+          <t>202028</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>رغد شادي محسن خصروف</t>
+          <t xml:space="preserve">حسن ضرغام كمال </t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3700,24 +3700,24 @@
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>221526</t>
+          <t>202041</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
+          <t xml:space="preserve">محمد سعد وحيد </t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3727,24 +3727,24 @@
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>221529</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>شهد بدرالدين مصطفى حسين</t>
+          <t xml:space="preserve">مينا حسنين عباس </t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3754,24 +3754,24 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>221532</t>
+          <t>202162</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>عائشة عمر عثمان نورى</t>
+          <t>محمد عاهد محمد الصرايره</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3781,24 +3781,24 @@
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>B1B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>221533</t>
+          <t>210624</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد الصديق احمد</t>
+          <t>محمد سمير يونس محمد</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3808,24 +3808,24 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>210680</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>يوسف عماد محمد سيد احمد حبرك</t>
+          <t>مصطفى حمدان عطا احمد عبد الله</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3835,24 +3835,24 @@
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>221538</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
+          <t>ندى احمد عقل على</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3862,24 +3862,24 @@
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>221541</t>
+          <t>210793</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساره محمد محمود مالك </t>
+          <t>معاذ نزال طحينه</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3889,24 +3889,24 @@
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>221542</t>
+          <t>210923</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اريام عمر الخضير  </t>
+          <t>علاء على حسن الاسمر</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3916,24 +3916,24 @@
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>221548</t>
+          <t>211004</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>مريم احمد صباغ</t>
+          <t>منتصر صالح عيسى الخطيب</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3943,24 +3943,24 @@
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>221552</t>
+          <t>211010</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
+          <t>روان فيصل احمد محمد</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3970,24 +3970,24 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>221556</t>
+          <t>211043</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>حازم اسامه شحاده</t>
+          <t>حلا محمد ياسر</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -3997,24 +3997,24 @@
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>221560</t>
+          <t>211046</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>شام خالد درويش</t>
+          <t>نوف عبد الرحمن عبد الجليل محمد</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4024,24 +4024,24 @@
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>211079</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>حسن محمد محى الدين بابكر</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4051,24 +4051,24 @@
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>211086</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4078,24 +4078,24 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>211092</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t>يارا اسماعيل ابراهيم درويش</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4105,24 +4105,24 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>211096</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4132,24 +4132,24 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>211102</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>باسل عبد المجيد مصطفى الاعمر</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4159,24 +4159,24 @@
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>211111</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>عمار عبد المهيمن الساخن</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4186,24 +4186,24 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>211118</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>راما سماعيل محمود فرج فريحات</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4213,24 +4213,24 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>211131</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4240,24 +4240,24 @@
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>211133</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4267,24 +4267,24 @@
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>ضرغام بشير حامد بشير</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4294,24 +4294,24 @@
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>211146</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4321,24 +4321,24 @@
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>211147</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>رزان محمد بله عبد الله</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4348,24 +4348,24 @@
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>211167</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>امينه مجدى محمد مشعل</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4375,24 +4375,24 @@
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>211169</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>سفيان عبد الله محمد حمران</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4402,24 +4402,24 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>211174</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4429,24 +4429,24 @@
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>211175</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4456,24 +4456,24 @@
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4483,24 +4483,24 @@
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>211189</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ريم احمد غزال </t>
+          <t>عمر عبد العزيز الزعبي</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4510,24 +4510,24 @@
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>211197</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4537,24 +4537,24 @@
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>211216</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>احمد على محمد على</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4564,24 +4564,24 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>221642</t>
+          <t>211217</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>فاطمة محمد عبد الله عبد الرازق</t>
+          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4591,24 +4591,24 @@
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>221652</t>
+          <t>211232</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>يامن احمد محمد خالد صب لبن</t>
+          <t>دانه جاسر محمد سعيد مسعود</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4618,24 +4618,24 @@
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>221655</t>
+          <t>211242</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">أماني شوقي حسن احمد </t>
+          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4645,24 +4645,24 @@
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>211245</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد احمد العطا حمد </t>
+          <t>زهره حامد سعد الله عبد الله</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4672,24 +4672,24 @@
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>221658</t>
+          <t>211251</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>روين محمد أحمد بورجي</t>
+          <t>انوار يوسف موسى الزعبى</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4699,24 +4699,24 @@
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>221672</t>
+          <t>211262</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>نهى النزير عبدالرحمن الجعلي</t>
+          <t>رغد ابراهيم محمد ابو طير</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4726,24 +4726,24 @@
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>221673</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>عنود فيصل على حمد</t>
+          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4753,24 +4753,24 @@
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>221676</t>
+          <t>211267</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>ساميه أحمد محمد طيطي</t>
+          <t>قيس اسامه عبد الله هياجنه</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4780,24 +4780,24 @@
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>221677</t>
+          <t>211276</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">شاكر خالد قسم الله الجيلانى  </t>
+          <t>كمال وحيد محمد كمال عناتى</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4807,24 +4807,24 @@
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>221683</t>
+          <t>211286</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>عمرو وليد خالد كليم</t>
+          <t>اياد نبيل صادق طل</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4834,24 +4834,24 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>221686</t>
+          <t>211288</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسماعيل كمال احمرو </t>
+          <t>Ibrahim Taha Salama Helles</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4861,24 +4861,24 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>221688</t>
+          <t>211295</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">سليمان اياد سليمان الفليت </t>
+          <t>هبه عبد الحميد عبد الله محمد</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4888,24 +4888,24 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>221689</t>
+          <t>211298</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>هادي عيسى مهدي حسن محمد القبيطي</t>
+          <t>احمد عدنان محمود الخالد</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4915,24 +4915,24 @@
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>221694</t>
+          <t>211299</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>محمد جمال محمد حاج</t>
+          <t>محمد منير راضى خرفان</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4942,24 +4942,24 @@
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>221697</t>
+          <t>211311</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">زينب عبدالغفور محمد عبدالله </t>
+          <t>سولارا حسن صلاح الدين محمد</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4969,24 +4969,24 @@
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>221700</t>
+          <t>211348</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناصر محمد ناصر علي </t>
+          <t>محمد السيد عبد المنعم الغباشى</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -4996,24 +4996,24 @@
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>221701</t>
+          <t>211399</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>محمود سليم سليمان زبن</t>
+          <t>بسنت علاء الدين احمد محمد مرزوق</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5023,24 +5023,24 @@
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>221702</t>
+          <t>211415</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>محمود ابراهيم توفيق أبو هجرس</t>
+          <t>محمد هشام محمد عبد الوهاب</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5050,24 +5050,24 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>221706</t>
+          <t>211451</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>على محمد على بابكر</t>
+          <t>كارين ماجد شرقاوى يعقوب خليل</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5077,24 +5077,24 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>221707</t>
+          <t>211457</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
+          <t>جودى محمد احمد شديد</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5104,24 +5104,24 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>221709</t>
+          <t>211486</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>يقين ناصر الشريف</t>
+          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5131,24 +5131,24 @@
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>211539</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>عمرو هانى صالح امين حسين الصفتى</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5158,24 +5158,24 @@
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>211559</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
+          <t>رقيه صفوان محمد تيسير خضير</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5185,24 +5185,24 @@
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>211560</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>عمار ياسر الصادق محمد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5212,24 +5212,24 @@
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>211575</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">على الحسن </t>
+          <t>ايلاف الصادق عبد الملك ابراهيم</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5239,24 +5239,24 @@
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>211579</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان محمد فتحى محمد </t>
+          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5266,24 +5266,24 @@
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>211590</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول باسم قاووق </t>
+          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5293,24 +5293,24 @@
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>211598</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين احمد حسين الحسن </t>
+          <t>اسحاق محمد على قاسم الصلولى</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5320,24 +5320,24 @@
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>211603</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t>ريم رائد عبد الرحمن ابو جاسر</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5347,24 +5347,24 @@
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>211617</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>عادل عبد السلام احمد العبادى</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5374,24 +5374,24 @@
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>211619</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>معاذ سامر عبد العزيز دردس</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5401,24 +5401,24 @@
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>211621</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
+          <t>عثمان محمد نادر كامل</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5428,24 +5428,24 @@
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>221757</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشرى فكري محمد احمد الحميدي </t>
+          <t>يحيى عز العرب احمد العزه</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5455,24 +5455,24 @@
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221761</t>
+          <t>211631</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">كمال رامى كمال عبد العال </t>
+          <t>فرح احمد عبد الهادى الزعاتره</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5482,24 +5482,24 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>221763</t>
+          <t>211635</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>مهند فراس الاديب</t>
+          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5509,24 +5509,24 @@
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>221766</t>
+          <t>211637</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>خالد وليد سالم</t>
+          <t>مؤيد جميل راسم الريماوى</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5536,24 +5536,24 @@
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>221767</t>
+          <t>211643</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>وعد صديق عبدالرحمن يحى</t>
+          <t>Omar A H Daraghmeh</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5563,24 +5563,24 @@
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>221773</t>
+          <t>211648</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>محمود عبد السلام الشيخ</t>
+          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5590,24 +5590,24 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>221775</t>
+          <t>211655</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر محمد الحايك</t>
+          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5617,24 +5617,24 @@
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>221781</t>
+          <t>211662</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>نون عبدالله فضل ادريس</t>
+          <t>غاده بنت جابر بن محمد طوطيه</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5644,24 +5644,24 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>221784</t>
+          <t>211663</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>روان الجيلى خضر محمد</t>
+          <t>ايمن احمد على عبده</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5671,24 +5671,24 @@
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>221786</t>
+          <t>211670</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
+          <t>اسامه اديب على عبده الشامى</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5698,24 +5698,24 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>221797</t>
+          <t>211672</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>محمد يوسف محمود زهري</t>
+          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5725,24 +5725,24 @@
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>221803</t>
+          <t>211680</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>يحيى ابراهيم محمد الدراغمه</t>
+          <t>لمى طلال محمد البدور</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5752,24 +5752,24 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>221805</t>
+          <t>211687</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>ربا باسبار نورالدين عثمان</t>
+          <t>خيران سلطان على الحيجنه</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5779,24 +5779,24 @@
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>221809</t>
+          <t>211690</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>زياد محمد حسنى عليوه</t>
+          <t>Younes Zouhair Almbarak</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5806,24 +5806,24 @@
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>221813</t>
+          <t>211697</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>شمائل عبدالله مصطفي محمد الحسين</t>
+          <t>فاطمه الهادى ابراهيم احمد</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5833,24 +5833,24 @@
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>221816</t>
+          <t>211710</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رغد محمد عبدالملك الضحياني </t>
+          <t>جنات فايز عزمى شماس</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5860,24 +5860,24 @@
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>221817</t>
+          <t>211711</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن حسين سيد احمد</t>
+          <t>احمد عبد الله سالم الحويان</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5887,24 +5887,24 @@
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>221830</t>
+          <t>211713</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>مهجة خالد الضو مصطفى</t>
+          <t>صفاء محمود عبد الرحيم الامين</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5914,24 +5914,24 @@
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>221832</t>
+          <t>211720</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صفيه عبدالله حامد بابكر </t>
+          <t>ساره محمد احمد البيروتى</t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5941,24 +5941,24 @@
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>221834</t>
+          <t>211723</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد مصطفى صالحه </t>
+          <t>احمد حسن خليفه التليسى</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5968,24 +5968,24 @@
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>221841</t>
+          <t>211725</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>جميل تمام سيجري</t>
+          <t>زينب رفعت محمد عبد القيوم</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -5995,24 +5995,24 @@
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>221844</t>
+          <t>211728</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>عمر الخطاب عمر محمد احمد</t>
+          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6022,24 +6022,24 @@
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>221847</t>
+          <t>211732</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>عمر خالد ياسين الرحاحله</t>
+          <t>محمد يامن فراس الامام</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6049,24 +6049,24 @@
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>221854</t>
+          <t>211735</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد يحيى الارحبي</t>
+          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6076,24 +6076,24 @@
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>221859</t>
+          <t>211737</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>ايلاف يوسف محمد احمد</t>
+          <t xml:space="preserve">صلاح الدين محمد محمود الدروبى  </t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6103,24 +6103,24 @@
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>221860</t>
+          <t>211741</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>حمزه صالح ابراهيم ابو شاويش</t>
+          <t xml:space="preserve">احمد منار احمد العوينى  </t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6130,24 +6130,24 @@
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>211742</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>فيصل محمد احمد قواقزه</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6157,24 +6157,24 @@
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>221872</t>
+          <t>211745</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف الصادق محمد حسن </t>
+          <t xml:space="preserve">زيد خضر يةسف ابو ناب </t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6184,24 +6184,24 @@
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>221878</t>
+          <t>211750</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>ميسم الصادق يعقوب احمد</t>
+          <t>محمد عباس محمد محمد ابو عساج</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6211,24 +6211,24 @@
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>221880</t>
+          <t>211752</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>دعاء صلاح محمد حسن</t>
+          <t xml:space="preserve">حلا رياض حمضمض </t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6238,24 +6238,24 @@
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>221885</t>
+          <t>211753</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>جهاد عمر سويد</t>
+          <t>ياسر سمير السيد محمد</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6265,24 +6265,24 @@
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>221891</t>
+          <t>211757</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>ماجد عبد الرحمن تركى رواشدة</t>
+          <t>مريم وليد سالم</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6292,24 +6292,24 @@
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>221896</t>
+          <t>211764</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بيان ادم احمد على  برشى </t>
+          <t xml:space="preserve">فؤاد تيسير سعيد ابو اللبن  </t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6319,24 +6319,24 @@
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>221913</t>
+          <t>211765</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>رشا حسن محمد حاج محمد احمد</t>
+          <t>محمد عبد الرقيب فايد عبد العظيم</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6346,24 +6346,24 @@
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>211769</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>محمد ايمن الجمعه الحديد</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6373,24 +6373,24 @@
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>211777</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t>غاده خالد شرف الدين حاج يوسف</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6400,24 +6400,24 @@
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>221956</t>
+          <t>211783</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد محمد ترياقى </t>
+          <t xml:space="preserve">حمزه احمد فضل العزازى  </t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6427,24 +6427,24 @@
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>211790</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>اصيل محمود زريقات</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6454,24 +6454,24 @@
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>211791</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
+          <t>سيف الدين محمد احمد محمد</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6481,24 +6481,24 @@
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>211799</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t>على محمد امين اليمانى</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6508,24 +6508,24 @@
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>211822</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابرار كمال محمد عمر </t>
+          <t>محمد مطر اكرم مقاط</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6535,24 +6535,24 @@
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>211854</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رنا محمد مصطفى على </t>
+          <t>عطيه عائد محمد مصباح حموده</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6562,24 +6562,24 @@
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>211865</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
+          <t>ساره جميل سيد محمد الجندى</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6589,24 +6589,24 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>222048</t>
+          <t>211866</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>المعتصم بالله مصطفى محمد على</t>
+          <t>امير عناد خلف الثوابيه</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6616,24 +6616,24 @@
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>211872</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
+          <t>عليان محمد عليان العزام</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6643,24 +6643,24 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>211876</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
+          <t>فارس اسعد صادق ابو رميله</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6670,24 +6670,24 @@
       </c>
       <c r="D230" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>211877</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
+          <t>عفراء محمود حاج على احمد</t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6697,24 +6697,24 @@
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>211882</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>شمس فخر الدين محمد الزبير</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6724,24 +6724,24 @@
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>222075</t>
+          <t>211887</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
+          <t>عايش غسان عايش الهباهبه</t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6751,24 +6751,24 @@
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>211889</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
+          <t>فاطمه الزهراء ابرهيم محجوب فضل المولى</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6778,24 +6778,24 @@
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>222080</t>
+          <t>211895</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسد الله حامد احمد </t>
+          <t>غفران كاظم ابراهيم انشاصى</t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6805,24 +6805,24 @@
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>222081</t>
+          <t>211907</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>عفيف عبد الجبار العبيد الصديق</t>
+          <t>دانيه معاويه محمد عمر باجابر</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6832,24 +6832,24 @@
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>222085</t>
+          <t>211908</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مهند معاوية صالح جقدولة </t>
+          <t>نفيسه عادل احمد محمد</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6859,24 +6859,24 @@
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>222089</t>
+          <t>211926</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نزار باسل عبد السميع جوده </t>
+          <t xml:space="preserve">مريم عبد المنعم الشيبانى عاشور   </t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6886,24 +6886,24 @@
       </c>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>222091</t>
+          <t>211933</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>سالم فايز سالم البلوى</t>
+          <t xml:space="preserve">مرح عبد الكريم محمد قاسم </t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6913,24 +6913,24 @@
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>222094</t>
+          <t>211936</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">كريم برعى مكى برعى </t>
+          <t>مريم صلاح الدين على عبد الله</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6940,24 +6940,24 @@
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>222096</t>
+          <t>211959</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>محمود النميرى محمود ابراهيم</t>
+          <t xml:space="preserve">معتصم محمد فتحى مصباح العابودى  </t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6967,24 +6967,24 @@
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>222102</t>
+          <t>211962</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>محمد حسن حمدو حسن</t>
+          <t>عمر محمد سليمان شطناوى</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -6994,24 +6994,24 @@
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>222106</t>
+          <t>211973</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>عمرو ياسر عثمان عبد المجيد</t>
+          <t>رزان اشرف صلاح محمد</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7021,24 +7021,24 @@
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>222111</t>
+          <t>211975</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ليازيا الفاتح صالح ادريس </t>
+          <t>Hoda Mojadidy</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7048,24 +7048,24 @@
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>222123</t>
+          <t>211979</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>عبد الله العوض سليمان بابكر</t>
+          <t>رند رائد يوسف طليب</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7075,24 +7075,24 @@
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>201577</t>
+          <t>211984</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> عزام عبد الله على حسن الحكمى</t>
+          <t>توفيق محمد جلال سراج</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7102,24 +7102,24 @@
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>210288</t>
+          <t>211992</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>عمرو اشرف جابر رمضان</t>
+          <t>اياس رائد محمود النحاس</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7129,24 +7129,24 @@
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>210306</t>
+          <t>211998</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>احمد اشرف احمد رجب غزال</t>
+          <t>سلاف حسام الدين الرفاعى</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7156,24 +7156,24 @@
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>210319</t>
+          <t>212028</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>احمد سامح جمعه عبد المجيد محمد</t>
+          <t>سنيوره خالد محمد جبر</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7183,24 +7183,24 @@
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>210333</t>
+          <t>212038</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد عبد الجواد مندور هاشم</t>
+          <t>رقيه حسين محمد رضا</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7210,24 +7210,24 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>210334</t>
+          <t>212054</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>احمد محمد عبد المجيد عبد العاطي</t>
+          <t>عدى ابراهيم العباس</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7237,24 +7237,24 @@
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>210340</t>
+          <t>212060</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>احمد منتصر سيد منتصر احمد</t>
+          <t>محمد عثمان ابراهيم تمر</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7264,24 +7264,24 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>210385</t>
+          <t>212071</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>ايمان طارق مصطفى سيد احمد</t>
+          <t>عبد المجيد ناصر حسن قفله</t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">
@@ -7291,24 +7291,24 @@
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>210387</t>
+          <t>212079</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>ايمان محمد يوسف محمد</t>
+          <t>اروى عوض محمد همد</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -7318,24 +7318,24 @@
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>210401</t>
+          <t>212083</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>بافلى عماد غبريال مترى</t>
+          <t>عبد الكريم كمال عوض محمد عبد القادر</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
@@ -7345,24 +7345,24 @@
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>210421</t>
+          <t>212084</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>توماس مرجان فوزى شكر الله</t>
+          <t>ست البنات عثمان حمد عثمان</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -7372,24 +7372,24 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>210435</t>
+          <t>212094</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>حسن محمد حسن مرسى</t>
+          <t>رهف مالك فخرى الجواهره</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -7399,24 +7399,24 @@
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>210438</t>
+          <t>212101</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>حسينى طارق حسينى محمد الطويل</t>
+          <t>Haoua Souleyman Yaya</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -7426,24 +7426,24 @@
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>210509</t>
+          <t>212121</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>شروق محمود محمد محمود فرحات</t>
+          <t>ماريا يوسف عثمان على</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
@@ -7453,24 +7453,24 @@
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>210513</t>
+          <t>212123</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>شهد عبد الرحمن احمد الشاذلى</t>
+          <t>محمد يونس سرهيد لهيب</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -7480,24 +7480,24 @@
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>210516</t>
+          <t>212135</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>شرين سيف النصر</t>
+          <t>شهد فيصل سر الختم المكى</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -7507,24 +7507,24 @@
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>210558</t>
+          <t>212137</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>على عبد الرؤف محمد بكرى</t>
+          <t>سجى ايمن مصطفى عبد الحميد</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7534,24 +7534,24 @@
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>210621</t>
+          <t>212144</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
+          <t>الن يوسف حامد يوسف</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
@@ -7561,24 +7561,24 @@
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>210686</t>
+          <t>212151</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
+          <t>ماهر صالح جابر عثمان</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7588,24 +7588,24 @@
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>210703</t>
+          <t>212152</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>منى ذو الهمه محمد الطبلاوى غنيم</t>
+          <t>محمد مصطفى عبد اللطيف مصطفى</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -7615,24 +7615,24 @@
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>210727</t>
+          <t>212154</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>ندى احمد عبد الله احمد عبد المجيد</t>
+          <t>مؤيد سلوم سالم</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7642,24 +7642,24 @@
       </c>
       <c r="D266" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>210762</t>
+          <t>212155</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>هند السيد محمد السعيد سيد احمد</t>
+          <t>مجد عبد الجبار الفاضل</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -7669,24 +7669,24 @@
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>210799</t>
+          <t>212161</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>حسن ممدوح حسن صغير</t>
+          <t>شيرين خالد عبد المنعم محمد</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
@@ -7696,24 +7696,24 @@
       </c>
       <c r="D268" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>210809</t>
+          <t>212183</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>خطاب خالد هادى الوادعى</t>
+          <t>سالى عبد الباسط سليمان مصطفى</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -7723,24 +7723,24 @@
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>210828</t>
+          <t>212184</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>Manal Hamid Nour Mahamat Terab</t>
+          <t xml:space="preserve">Saadatu Mohammed Ahmed </t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
@@ -7750,24 +7750,24 @@
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>210832</t>
+          <t>212193</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>عصام الدين عادل محمد على</t>
+          <t>افنان عكرمه حسن محمد</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -7777,24 +7777,24 @@
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>210836</t>
+          <t>212195</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>عمه ديد درار</t>
+          <t>مؤيد ادريس محمد نول</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
@@ -7804,24 +7804,24 @@
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>210839</t>
+          <t>212205</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>شكرى محمد حاد</t>
+          <t>على محمد الشيخ دفع الله</t>
         </is>
       </c>
       <c r="C273" s="4" t="inlineStr">
@@ -7831,24 +7831,24 @@
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>210858</t>
+          <t>212245</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>محمد ابراهيم احمد عرجه</t>
+          <t>الاء مطر فرحه محمد</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
@@ -7858,24 +7858,24 @@
       </c>
       <c r="D274" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>210880</t>
+          <t>212248</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>نور الهدى ماجد عبد الامير</t>
+          <t>عمر يعقوب محمد فقير</t>
         </is>
       </c>
       <c r="C275" s="4" t="inlineStr">
@@ -7885,24 +7885,24 @@
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>210887</t>
+          <t>212254</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد الله عبد القادر محمد</t>
+          <t>الرشيد احمد الرشيد سيد احمد</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
@@ -7912,24 +7912,24 @@
       </c>
       <c r="D276" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
-          <t>210892</t>
+          <t>212258</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>Yusof Barghouty</t>
+          <t>سحر حسين جعفر حسن</t>
         </is>
       </c>
       <c r="C277" s="4" t="inlineStr">
@@ -7939,24 +7939,24 @@
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>210902</t>
+          <t>212266</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>عبير ميسره محى الدين قاسم</t>
+          <t>لجين ابو بكر الامين على</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
@@ -7966,24 +7966,24 @@
       </c>
       <c r="D278" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
         <is>
-          <t>210905</t>
+          <t>212279</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>ايمن خالد خليل الرجوب</t>
+          <t>قوارير خالد حاج حسن عثمان</t>
         </is>
       </c>
       <c r="C279" s="4" t="inlineStr">
@@ -7993,24 +7993,24 @@
       </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>210910</t>
+          <t>212283</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>ابو بكر عبد الرحيم سنجك محمد</t>
+          <t>تسنيم خالد محمد فقير</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
@@ -8020,24 +8020,24 @@
       </c>
       <c r="D280" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
         <is>
-          <t>210921</t>
+          <t>212291</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>براء علاء محمد البيوك</t>
+          <t>عبد الله مصطفى عزيزه</t>
         </is>
       </c>
       <c r="C281" s="4" t="inlineStr">
@@ -8047,24 +8047,24 @@
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>210927</t>
+          <t>212306</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>ايمان فؤاد حامد ابو حمره</t>
+          <t>حسين عماد الدين حسين الطاهر هلال</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
@@ -8074,24 +8074,24 @@
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
         <is>
-          <t>210939</t>
+          <t>212307</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>خليل جبر احمد على العبيى</t>
+          <t>سدره حسن عبد الله</t>
         </is>
       </c>
       <c r="C283" s="4" t="inlineStr">
@@ -8101,24 +8101,24 @@
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>210941</t>
+          <t>212314</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى امين غانم  </t>
+          <t>مرتضى محمد الصادق محمد</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -8128,24 +8128,24 @@
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
         <is>
-          <t>210947</t>
+          <t>212315</t>
         </is>
       </c>
       <c r="B285" s="4" t="inlineStr">
         <is>
-          <t>مريم بنت يعقوب بن يوسف الحمود</t>
+          <t>مجتبى محمد الصادق محمد</t>
         </is>
       </c>
       <c r="C285" s="4" t="inlineStr">
@@ -8155,24 +8155,24 @@
       </c>
       <c r="D285" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>210965</t>
+          <t>212320</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>همام احمد خليل</t>
+          <t>ربى عبد الله احمد بدرى</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -8182,24 +8182,24 @@
       </c>
       <c r="D286" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
         <is>
-          <t>210982</t>
+          <t>212324</t>
         </is>
       </c>
       <c r="B287" s="4" t="inlineStr">
         <is>
-          <t>عمر نصر الدين محمد خالد صب لبن</t>
+          <t>محمد وليد عثمان جلى</t>
         </is>
       </c>
       <c r="C287" s="4" t="inlineStr">
@@ -8209,24 +8209,24 @@
       </c>
       <c r="D287" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>210984</t>
+          <t>212333</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>وسيم رزق محمد سهمود</t>
+          <t>غفران امير سعد عبد الله</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -8236,24 +8236,24 @@
       </c>
       <c r="D288" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="inlineStr">
         <is>
-          <t>210994</t>
+          <t>212345</t>
         </is>
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور ماجد فايز ابو جامع </t>
+          <t>احمد امير محمد خير الله</t>
         </is>
       </c>
       <c r="C289" s="4" t="inlineStr">
@@ -8263,24 +8263,24 @@
       </c>
       <c r="D289" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>211002</t>
+          <t>212346</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>منيه خالد الشيخ حاج محمود</t>
+          <t>فخر الدين على محمد سعيد</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -8290,24 +8290,24 @@
       </c>
       <c r="D290" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="4" t="inlineStr">
         <is>
-          <t>211003</t>
+          <t>212347</t>
         </is>
       </c>
       <c r="B291" s="4" t="inlineStr">
         <is>
-          <t>محمد عادل محمد عبد الله العريفى</t>
+          <t>مصطفى كمال عبد الجليل محمد</t>
         </is>
       </c>
       <c r="C291" s="4" t="inlineStr">
@@ -8317,24 +8317,24 @@
       </c>
       <c r="D291" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>211024</t>
+          <t>212362</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>جاسم محمد المحيمد الخلف</t>
+          <t>غفران محمد الغالى على يوسف</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -8344,24 +8344,24 @@
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
         <is>
-          <t>211025</t>
+          <t>212368</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>شموخ على محمد حمادى</t>
+          <t xml:space="preserve">شهد عبد الله محمد النور </t>
         </is>
       </c>
       <c r="C293" s="4" t="inlineStr">
@@ -8371,24 +8371,24 @@
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>211029</t>
+          <t>212373</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن الضو النور على</t>
+          <t>ابراهيم فيصل ابراهيم محمد</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -8398,24 +8398,24 @@
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="4" t="inlineStr">
         <is>
-          <t>211044</t>
+          <t>212377</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>لجين فتحى عدلى محمد عبد الله</t>
+          <t>سفانه طاهر محمد عمر</t>
         </is>
       </c>
       <c r="C295" s="4" t="inlineStr">
@@ -8425,24 +8425,24 @@
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>211048</t>
+          <t>212414</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">فادى نواف الحريرى </t>
+          <t>رينادا ابراهيم سعيد محمد على</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -8452,24 +8452,24 @@
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
         <is>
-          <t>211056</t>
+          <t>212431</t>
         </is>
       </c>
       <c r="B297" s="4" t="inlineStr">
         <is>
-          <t>محمد وداد احمد وداد فرج</t>
+          <t>صفاء ذكى عباس عبد المطلب</t>
         </is>
       </c>
       <c r="C297" s="4" t="inlineStr">
@@ -8479,24 +8479,24 @@
       </c>
       <c r="D297" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>211060</t>
+          <t>212433</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>مروه فرحان الداموك</t>
+          <t>مصعب مصطفى ادم حامد</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -8506,24 +8506,24 @@
       </c>
       <c r="D298" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
         <is>
-          <t>211063</t>
+          <t>212440</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>مايا مراد موسى عبد القادر</t>
+          <t>ملاك المعتز عبد الماجد الحاج</t>
         </is>
       </c>
       <c r="C299" s="4" t="inlineStr">
@@ -8533,24 +8533,24 @@
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>211069</t>
+          <t>212453</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رياض محمد صافى </t>
+          <t xml:space="preserve">احمد عبد الله عثمان الشيخ </t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
@@ -8560,24 +8560,24 @@
       </c>
       <c r="D300" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="4" t="inlineStr">
         <is>
-          <t>211073</t>
+          <t>212455</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>حنين ايمن فؤاد دغباج</t>
+          <t xml:space="preserve">لمى مسلم امام ابراهيم </t>
         </is>
       </c>
       <c r="C301" s="4" t="inlineStr">
@@ -8587,24 +8587,24 @@
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>211934</t>
+          <t>212477</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>زيدون احمد محمود درادكه</t>
+          <t>ادريس على عبد الله عبد القادر</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
@@ -8614,24 +8614,24 @@
       </c>
       <c r="D302" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
         <is>
-          <t>220467</t>
+          <t>212479</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>خليل صالح الحريري</t>
+          <t>مناسك معاويه مصطفى ادم</t>
         </is>
       </c>
       <c r="C303" s="4" t="inlineStr">
@@ -8641,24 +8641,24 @@
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>221082</t>
+          <t>212501</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>جنى ايمن احمد شديد</t>
+          <t>اسيل عاطف عوض عبد القادر</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
@@ -8668,24 +8668,24 @@
       </c>
       <c r="D304" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="inlineStr">
         <is>
-          <t>221105</t>
+          <t>212511</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>ديفيد ادوار شكري برتلة رزق</t>
+          <t xml:space="preserve">فارس هيثم محمود الحسن    </t>
         </is>
       </c>
       <c r="C305" s="4" t="inlineStr">
@@ -8695,24 +8695,24 @@
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>221142</t>
+          <t>212587</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>سيف الدين وليد محمد على</t>
+          <t>رحمه محمد عبد الحميد حسن</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
@@ -8722,24 +8722,24 @@
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="4" t="inlineStr">
         <is>
-          <t>221155</t>
+          <t>212588</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن محمد سيد حنتيرة </t>
+          <t xml:space="preserve">وفاء مرسى عبد القادر محمد  </t>
         </is>
       </c>
       <c r="C307" s="4" t="inlineStr">
@@ -8749,12 +8749,228 @@
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B2F</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data_D07092025T122547.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="inlineStr">
+        <is>
+          <t>212592</t>
+        </is>
+      </c>
+      <c r="B308" s="3" t="inlineStr">
+        <is>
+          <t>امل اشرف حسين عبد العال</t>
+        </is>
+      </c>
+      <c r="C308" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D308" s="3" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="4" t="inlineStr">
+        <is>
+          <t>212598</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">نصر الله عامر العبد  </t>
+        </is>
+      </c>
+      <c r="C309" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D309" s="4" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E309" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="inlineStr">
+        <is>
+          <t>221758</t>
+        </is>
+      </c>
+      <c r="B310" s="3" t="inlineStr">
+        <is>
+          <t>سعاد عدنان محمد دعيس يونس</t>
+        </is>
+      </c>
+      <c r="C310" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D310" s="3" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="4" t="inlineStr">
+        <is>
+          <t>221884</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
+        <is>
+          <t>ليان ياسر عطايا</t>
+        </is>
+      </c>
+      <c r="C311" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D311" s="4" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E311" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="inlineStr">
+        <is>
+          <t>223003</t>
+        </is>
+      </c>
+      <c r="B312" s="3" t="inlineStr">
+        <is>
+          <t>تسنيم محمد انور</t>
+        </is>
+      </c>
+      <c r="C312" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D312" s="3" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="inlineStr">
+        <is>
+          <t>223004</t>
+        </is>
+      </c>
+      <c r="B313" s="4" t="inlineStr">
+        <is>
+          <t>هاجر عماد حسين حسين</t>
+        </is>
+      </c>
+      <c r="C313" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D313" s="4" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E313" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="inlineStr">
+        <is>
+          <t>223005</t>
+        </is>
+      </c>
+      <c r="B314" s="3" t="inlineStr">
+        <is>
+          <t>عمر محمد احمد على محمد حفناوى</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D314" s="3" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="inlineStr">
+        <is>
+          <t>223006</t>
+        </is>
+      </c>
+      <c r="B315" s="4" t="inlineStr">
+        <is>
+          <t>محمد فتحى احمد الحسينى</t>
+        </is>
+      </c>
+      <c r="C315" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D315" s="4" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E315" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
         </is>
       </c>
     </row>

--- a/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,10 +70,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -91,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,19 +467,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,12 +512,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>180804</t>
+          <t>221171</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>وسام عبد الناصر عباس عبد الهادى</t>
+          <t>فادي ياسر جورج تادرس</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -514,24 +527,24 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>181004</t>
+          <t>221172</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد الحافظ عبد الماجد هارون عبد الماجد      </t>
+          <t>فارس محمد رجب احمد العدوي</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -541,24 +554,24 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>181013</t>
+          <t>221173</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>حسين ميخائيل صليبا المعايعه</t>
+          <t>فاطمة الزهراء  محمد ابراهيم راجح</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -568,24 +581,24 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>190314</t>
+          <t>221175</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>مازن محمد امين امين محمد</t>
+          <t>فريده عمرو محمد عماره</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -595,24 +608,24 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>190540</t>
+          <t>221176</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ليان بنت خالد بن سعد المقذلى</t>
+          <t>قاسم محمد عابد ربيع السحيتى</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -622,24 +635,24 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>190796</t>
+          <t>221177</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>اسيا ادريس ابراهيم ادريس</t>
+          <t>كريم احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -649,24 +662,24 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>190801</t>
+          <t>221180</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>صالح سفيان محمد عثمان عابدون</t>
+          <t>لمار هيثم محمد فاروق محمد</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -676,24 +689,24 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>190803</t>
+          <t>221181</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>عبد الله كريم احمد الضمور</t>
+          <t>لوجين محمد صبري محمد سعد القاضي</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -703,24 +716,24 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>190807</t>
+          <t>221182</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عبد الجليل عبد الرحمن ابراهيم </t>
+          <t>ليديا موريس أنيس سعيد</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -730,24 +743,24 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>190846</t>
+          <t>221184</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>محمد ايهاب عبد الله حماد</t>
+          <t>ماجده محمود عبدالهادي محمد محمود</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -757,24 +770,24 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>190874</t>
+          <t>221185</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>محمد امين محمود حسن</t>
+          <t>مايكل عادل ميخائيل فهمى شنوده</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -784,24 +797,24 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>221186</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>محمد عماد الدوس</t>
+          <t>محسن محمود محسن محود السيد</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -811,24 +824,24 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>190929</t>
+          <t>221187</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>سلطان فازع على صغير</t>
+          <t>محمد  عبد الفتاح  عبد البديع فياض</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -838,24 +851,24 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>190968</t>
+          <t>221188</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>احمد سليم بشير عجوز</t>
+          <t>محمد ابراهيم عبد الغفار ابووازن</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -865,24 +878,24 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>190975</t>
+          <t>221189</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>افنان صلاح عيسى حمد محمد</t>
+          <t>محمد احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -892,24 +905,24 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>190981</t>
+          <t>221190</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>عائشه موسى الراقى مهدى</t>
+          <t>محمد حمدي محمد صقر الهتير</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -919,24 +932,24 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>191052</t>
+          <t>221191</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>احمد رشاد حميد</t>
+          <t>محمد خلف  سلمان  سلطان</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -946,24 +959,24 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>191055</t>
+          <t>221192</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>بسام محمد سالم نويران</t>
+          <t>محمد شريف سمير مصطفى الزهوى</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -973,24 +986,24 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>191061</t>
+          <t>221193</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maya Naser Saleem Abubaker</t>
+          <t>محمد صلاح رمضان عبد الحميد</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1000,24 +1013,24 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>191062</t>
+          <t>221194</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>احمد ابراهيم رمضان خضر</t>
+          <t>محمد عبد الكريم رمضان بكري سالم</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1027,24 +1040,24 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>191088</t>
+          <t>221195</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن عبود بشير محمد</t>
+          <t>محمد عبدالحليم محمد عمار</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1054,24 +1067,24 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>191109</t>
+          <t>221196</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>ريان بن احمد على العواجى</t>
+          <t>محمد عصام جابر رمضان</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1081,24 +1094,24 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>191119</t>
+          <t>221197</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر بلال احمد الشدفان </t>
+          <t>محمد علاء مدحت حسن</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1108,24 +1121,24 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>191123</t>
+          <t>221198</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>حسين سعدأمين</t>
+          <t>محمد عمادالدين محمد ابوزيد</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1135,24 +1148,24 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>191125</t>
+          <t>221199</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رائد محمد رفيق النتشه </t>
+          <t>محمد عمرو حسين منصور</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1162,24 +1175,24 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>191131</t>
+          <t>221200</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">المثنى جاد عاطف  </t>
+          <t>محمد نبيل عبدالملك احمد ابو الخير</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -1189,24 +1202,24 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>191186</t>
+          <t>221201</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ايمان ياسر محمد النونو</t>
+          <t>محمد وائل ادريس محمود</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1216,24 +1229,24 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>191258</t>
+          <t>221203</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نايف محمد على الصغير الجلاب </t>
+          <t>مريم  عمرو  محمد عادل  عبد الرحمن</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1243,24 +1256,24 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>191375</t>
+          <t>221204</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">هديل نصر الحريرى </t>
+          <t>مريم أسامة نشأت بسطا</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1270,24 +1283,24 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>191444</t>
+          <t>221205</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>انس ناصر الشبراوى محمد محمد</t>
+          <t>مريم حسين محمد عبدالسلام</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1297,24 +1310,24 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>191478</t>
+          <t>221208</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد الرحمن محمد سامر النجار</t>
+          <t>مصطفى جمال محمد معتمد</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1324,24 +1337,24 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>191480</t>
+          <t>221211</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد عمر سلامه الحراسيس </t>
+          <t>ملك مصطفي ابراهيم ابراهيم</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1351,24 +1364,24 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>191502</t>
+          <t>221212</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>مرام حاتم عبد الله عباس</t>
+          <t>منة مدحت سالم علي</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1378,24 +1391,24 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>200003</t>
+          <t>221213</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ابراهيم جاد ابراهيم محمود</t>
+          <t>منه كريم السعيد الملخاني</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1405,24 +1418,24 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>200116</t>
+          <t>221215</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>اميره ابراهيم محمد</t>
+          <t>مي محمد عبد المنعم  محمد بكر</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1432,24 +1445,24 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>200163</t>
+          <t>221216</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>بسملة احمد عبدالمنعم خالد</t>
+          <t>ميار  طه يوسف عمار</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1459,24 +1472,24 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>200228</t>
+          <t>221218</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>رانا حسام رمضان محمد</t>
+          <t>مينا مدحت خلف ناشد  سليمان</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1486,24 +1499,24 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>200344</t>
+          <t>221220</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>شريهان عبد الهادى السيد ابراهيم محمد</t>
+          <t>نادين محمود سعيد زكي</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1513,24 +1526,24 @@
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>200359</t>
+          <t>221221</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>صلاح الدين عرفان صلاح عرفان محمد</t>
+          <t>ندي ناجي عبدالغني هلال</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1540,24 +1553,24 @@
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>200405</t>
+          <t>221222</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>عصام طه محمد صلاح الدين طه حسنين</t>
+          <t>نور  أحمد  سمير علي</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -1567,24 +1580,24 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>200423</t>
+          <t>221223</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>عمر خالد احمد مختار هيكل</t>
+          <t>نور احمد جابر احمد</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1594,24 +1607,24 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>200468</t>
+          <t>221226</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>فريد مبروك حسين احمد ابوعامر</t>
+          <t>نورا هاني أحمد سيف</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1621,24 +1634,24 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>200490</t>
+          <t>221230</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Kerlos Saber Kerlos Labib</t>
+          <t>هاله احمد صلاح القاضى</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1648,24 +1661,24 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>200491</t>
+          <t>221231</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>كيرلس صفوت واصفي سوريال</t>
+          <t>هدى ابوالخير  عبدالعظيم سكرمه</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1675,24 +1688,24 @@
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>200628</t>
+          <t>221236</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>منار سعيد حسن حسن الديب</t>
+          <t>ياسين شاهين محمد خليفة</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1702,24 +1715,24 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>200708</t>
+          <t>221238</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>نورهان مجدى على احمد ابو شعير</t>
+          <t>يوسف  ابراهيم  محمود محمود محمد سالم</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -1729,24 +1742,24 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>200727</t>
+          <t>221239</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>هبه محمد محمود عبدالظاهر احمد</t>
+          <t>يوسف  احمد احمد النجار</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1756,24 +1769,24 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>200742</t>
+          <t>221240</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>ياسمين رفيق عبده التابعى يحيى</t>
+          <t>يوسف  احمد السيد رفاعي دراز</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -1783,24 +1796,24 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>200744</t>
+          <t>221241</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ياسمين مصطفى ابراهيم على السيسى</t>
+          <t>يوسف  ايهاب  محمد  مصطفي</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1810,24 +1823,24 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>200792</t>
+          <t>221242</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>روان زكريا صالح</t>
+          <t>يوسف الشقيري عبدالفضيل السيد</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1837,24 +1850,24 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>200804</t>
+          <t>221243</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Asma Haji Osman Omer</t>
+          <t>يوسف أسامه يسين عبد العظيم</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1864,24 +1877,24 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>200824</t>
+          <t>221244</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>محمد نظام محمد القرا</t>
+          <t>يوسف أيمن أحمد يوسف الجعار</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1891,24 +1904,24 @@
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>200850</t>
+          <t>221245</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>دانيه مصطفى سالم يوسف</t>
+          <t>يوسف شعبان عبدالقوي عبدالله</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1918,24 +1931,24 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>200852</t>
+          <t>221246</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد الدين محمد الجماله </t>
+          <t>جوليا سامى لبيب عبد الملك</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1945,24 +1958,24 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>200858</t>
+          <t>221249</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس اسامه محمد فارس اسليم  </t>
+          <t>ليان محمد خليل لافي</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -1972,24 +1985,24 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>200866</t>
+          <t>221251</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>ليلى مروان على شعت</t>
+          <t>دانيه رائد عبد الكريم طحاينه</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -1999,24 +2012,24 @@
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>200869</t>
+          <t>221253</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>انس الامام</t>
+          <t>عبد الله محمد عبد الجليل توب</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2026,24 +2039,24 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>200877</t>
+          <t>221258</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">الاء خالد السماعيل </t>
+          <t>محمود نضال محمود حموده</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
@@ -2053,24 +2066,24 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>200897</t>
+          <t>221259</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ريناد بارى ابراهيم عثمان</t>
+          <t>ظافر فوزان عبد الله الشوبكي</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2080,24 +2093,24 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>221261</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>سيف خالد موسى عبيد</t>
+          <t>على فادى العياش</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
@@ -2107,24 +2120,24 @@
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>221267</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>عبد الله بدر الدين عبد الله احمد</t>
+          <t>محمد زكريا محمد عطا الفضيل</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2134,24 +2147,24 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1A</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>200914</t>
+          <t>221269</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>زيد محمد سليم السخارنه</t>
+          <t>عمر فرزت شلهوب</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -2161,24 +2174,24 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>200917</t>
+          <t>221272</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>جعفر محمد الجاسم</t>
+          <t>حلا حسان جميل خلف</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2188,24 +2201,24 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>200928</t>
+          <t>221273</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>المنذر بسام ابراهيم العطيوى</t>
+          <t>ريناء دفع الله يوسف اصيل</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -2215,24 +2228,24 @@
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>200933</t>
+          <t>221275</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ميس عمر حسن النصيرات </t>
+          <t xml:space="preserve">عمار عبد الله محمد العيسوي </t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2242,24 +2255,24 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>200938</t>
+          <t>221277</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>محمد جعفر عبده ابو رمان</t>
+          <t>أحمد عاهد صلاح حمادة</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -2269,24 +2282,24 @@
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>200958</t>
+          <t>221280</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>على معاذ على عثمان</t>
+          <t>سعيد ايوب سعيد حموده</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2296,24 +2309,24 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>200968</t>
+          <t>221285</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فيصل فهد عمر بافرج </t>
+          <t>نزار مهند نزار صبري</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -2323,24 +2336,24 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>200994</t>
+          <t>221287</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>مريم عبد الرزاق جامع</t>
+          <t>زينب عبد الله حسن علي</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2350,24 +2363,24 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>200997</t>
+          <t>221292</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>حلا محمود حسين العسولى</t>
+          <t>احمد اسامه زكي الساعد</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
@@ -2377,24 +2390,24 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>200999</t>
+          <t>221299</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">خليل عاطف محمد خليل طبش </t>
+          <t>افنان عبدالمولي ابراهيم القماطي</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2404,24 +2417,24 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>201007</t>
+          <t>221300</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>اسامه خالد محسن المطار</t>
+          <t>جمان خالد عبدالله اعمور</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -2431,24 +2444,24 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>201013</t>
+          <t>221301</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>اياد محمد مؤمن ابو البرغل</t>
+          <t>جنا علاء شوكت عمرية</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2458,24 +2471,24 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>201022</t>
+          <t>221302</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>محمد اسامه محمد حسن عبد الوهاب</t>
+          <t>عبد الفتاح محمد عبد الزبيدي</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
@@ -2485,24 +2498,24 @@
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>201023</t>
+          <t>221306</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>دانيا ناصر محمد ابو يوسف</t>
+          <t>مزين تمام الدبساوي</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2512,24 +2525,24 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>201026</t>
+          <t>221309</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>يمنى احمد عبد الله محمد</t>
+          <t>علي محمد آدم مقدم</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -2539,24 +2552,24 @@
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>201051</t>
+          <t>221313</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>رزان احمد حسن باشماخ</t>
+          <t>نداء ادريس موسي ادم</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2566,24 +2579,24 @@
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>201065</t>
+          <t>221315</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>عباده فراس محمد النسور</t>
+          <t xml:space="preserve">احمد عمار غنام لم يصعد </t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
@@ -2593,24 +2606,24 @@
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>201080</t>
+          <t>221320</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>زياد محمد سعد عيد رشوان</t>
+          <t>ابراهيم سلام المكحل</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2620,24 +2633,24 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>201157</t>
+          <t>221327</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>حلمى عبد الغنى حلمى عبد الغنى جادو</t>
+          <t>سجود رائد محمود ابو طه</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
@@ -2647,24 +2660,24 @@
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>201171</t>
+          <t>221330</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>رحمه احمد محمد على خليل</t>
+          <t>سلمى محمد طاهر</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -2674,24 +2687,24 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>201190</t>
+          <t>221334</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>مازن ضيف الله فالح عمر قنديل</t>
+          <t>حسن نضال سليمان سويطي</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
@@ -2701,24 +2714,24 @@
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>201197</t>
+          <t>221335</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان حمزه ابراهيم زقوت </t>
+          <t>حذيفه طريف القطرنجى</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -2728,24 +2741,24 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>201218</t>
+          <t>221339</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>عدى بشار رياض ابراهيم</t>
+          <t>داليا عبد الملك محمد الحسن</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
@@ -2755,24 +2768,24 @@
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>221353</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>خزامه ابراهيم مهاوش الحماد</t>
+          <t>حيدر مروان المخزوم</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -2782,24 +2795,24 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>201255</t>
+          <t>221372</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>مؤمن محمود محمد الصبيحى</t>
+          <t>ابرار محمد عثمان المصطفى</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -2809,24 +2822,24 @@
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>201297</t>
+          <t>221379</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">امال منذر عبد الحميد الخرابشه </t>
+          <t>حسن اشرف حسن فضل المولى</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -2836,24 +2849,24 @@
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>201328</t>
+          <t>221384</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اروى مفتاح محمد خليفه  </t>
+          <t xml:space="preserve">مصطفى فهد عبد الباقى  </t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -2863,24 +2876,24 @@
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>201337</t>
+          <t>221385</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور حازم نعيم الصمادى  </t>
+          <t xml:space="preserve">بشير طراد الحراكىى </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2890,24 +2903,24 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>201397</t>
+          <t>221396</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
+          <t>بشرى عادل عاشور تريبل</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -2917,24 +2930,24 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>201398</t>
+          <t>221399</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
+          <t xml:space="preserve">موسى جيله حسن </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2944,24 +2957,24 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>201438</t>
+          <t>221402</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>غيث معاذ محمد على</t>
+          <t xml:space="preserve">ابراهيم سليمان جديد </t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -2971,24 +2984,24 @@
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>201465</t>
+          <t>221419</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>علياء محمد بكر الكفراوى</t>
+          <t>محمد طه عبد الراضى سليم</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -2998,24 +3011,24 @@
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>201501</t>
+          <t>221424</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>احمد حسين محمد</t>
+          <t xml:space="preserve">روند نائل محمد زايدة </t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3025,24 +3038,24 @@
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>221434</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Abdulhakim Saleh Mohamed Taha</t>
+          <t>محمد اسامه محمد البكري باعلي</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3052,24 +3065,24 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>201529</t>
+          <t>221440</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>تذكار سليمان عيسى احمد دينار</t>
+          <t>وعد مصعب دفع الله احمد</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3079,24 +3092,24 @@
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>201560</t>
+          <t>221441</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>صهيب محمد عبد الخالق طه</t>
+          <t>شهد مصعب دفع الله احمد</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3106,24 +3119,24 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>201563</t>
+          <t>221445</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>اسماء محمد ابراهيم</t>
+          <t>نور موفق العينيه</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3133,24 +3146,24 @@
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>201564</t>
+          <t>221451</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>فاطمه محمود محمد محمود</t>
+          <t>سيف الدين وليد ابراهيم احمد</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3160,24 +3173,24 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>201572</t>
+          <t>221452</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>رهف عبد الرحمن سرور</t>
+          <t>ساندى اقلاديوس صبحى بطرس</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3187,24 +3200,24 @@
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>201632</t>
+          <t>221453</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد مصطفى على دنيال</t>
+          <t>مكسيموس مرقص فاروق غبريال</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3214,24 +3227,24 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>201638</t>
+          <t>221454</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>زياد محمود السيد</t>
+          <t>كيرلس ريمون منير حزين</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3241,24 +3254,24 @@
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>201669</t>
+          <t>221455</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>نورهان السيد حسن محمد القزاز</t>
+          <t>احمد خالد فؤاد خالد</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3268,24 +3281,24 @@
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>201670</t>
+          <t>221456</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>روان شعبان على محمد ابو هيبه</t>
+          <t>عمرو اشرف فتحى محمد</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3295,24 +3308,24 @@
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>201682</t>
+          <t>221457</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>خلود خالد اسماعيل عثمان صالح</t>
+          <t>مؤمن ايهاب فتحى محمد</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3322,24 +3335,24 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>201766</t>
+          <t>221462</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>هاجر عز العرب محمد عبد الواحد العكاد</t>
+          <t>روان احمد عبد الفتاح مصطفى احمد مصطفى</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3349,24 +3362,24 @@
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>201795</t>
+          <t>221463</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عائد احمد خليل </t>
+          <t>كريم وليد فتحى ابراهيم السيد</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3376,24 +3389,24 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>201823</t>
+          <t>221465</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
+          <t>ملك عادل فراج عبد العال</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3403,24 +3416,24 @@
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>201825</t>
+          <t>221467</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>الحمزه عماد محمد</t>
+          <t xml:space="preserve">عبدالحي عبدالمنعم الشيباني  </t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3430,24 +3443,24 @@
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>201834</t>
+          <t>221469</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
+          <t>لؤي مازن عوني حموده</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3457,24 +3470,24 @@
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>201838</t>
+          <t>221472</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>سائد عاصم سليمان اسماعيل الاغا</t>
+          <t xml:space="preserve">حسام عمار عبدالله جعوان  </t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3484,24 +3497,24 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>201840</t>
+          <t>221482</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>يونس اسماعيل سليمان</t>
+          <t xml:space="preserve">حسين محمد حسين ابو مغصيب   </t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3511,24 +3524,24 @@
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>201880</t>
+          <t>221497</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>شيماء عبد الباسط عبد الصمد درويش</t>
+          <t xml:space="preserve">تركي محمد علي الحاج </t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3538,24 +3551,24 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>201931</t>
+          <t>221499</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بكر عمر محى الدين  </t>
+          <t xml:space="preserve">ابراهيم خليل محمد غربيه </t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3565,24 +3578,24 @@
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>201954</t>
+          <t>221501</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد صباح محمد </t>
+          <t xml:space="preserve">عبد الله فتح الرحمن محمد عمر  </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3592,24 +3605,24 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>201959</t>
+          <t>221503</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صافى محمد عبد </t>
+          <t>رند عادل عبد الفتاح شحاده</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3619,24 +3632,24 @@
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>221514</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
+          <t xml:space="preserve">مصطفي عمر عبدالهادى محمد  </t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3646,24 +3659,24 @@
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>202022</t>
+          <t>221516</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">سالى محمد حسن   </t>
+          <t>فاطمه عبدالحفيظ محمد صالح</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3673,24 +3686,24 @@
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>202028</t>
+          <t>221519</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسن ضرغام كمال </t>
+          <t>رغد شادي محسن خصروف</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3700,24 +3713,24 @@
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>202041</t>
+          <t>221526</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد سعد وحيد </t>
+          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3727,24 +3740,24 @@
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>202089</t>
+          <t>221529</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مينا حسنين عباس </t>
+          <t>شهد بدرالدين مصطفى حسين</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3754,24 +3767,24 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>202162</t>
+          <t>221532</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>محمد عاهد محمد الصرايره</t>
+          <t>عائشة عمر عثمان نورى</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3781,24 +3794,24 @@
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>210624</t>
+          <t>221533</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>محمد سمير يونس محمد</t>
+          <t>عمر محمد الصديق احمد</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3808,24 +3821,24 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>210680</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>مصطفى حمدان عطا احمد عبد الله</t>
+          <t>يوسف عماد محمد سيد احمد حبرك</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3835,24 +3848,24 @@
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>210728</t>
+          <t>221538</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>ندى احمد عقل على</t>
+          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3862,24 +3875,24 @@
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>210793</t>
+          <t>221541</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>معاذ نزال طحينه</t>
+          <t xml:space="preserve">ساره محمد محمود مالك </t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3889,24 +3902,24 @@
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>210923</t>
+          <t>221542</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>علاء على حسن الاسمر</t>
+          <t xml:space="preserve">اريام عمر الخضير  </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3916,24 +3929,24 @@
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>211004</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>منتصر صالح عيسى الخطيب</t>
+          <t>مريم احمد صباغ</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3943,24 +3956,24 @@
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>211010</t>
+          <t>221552</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>روان فيصل احمد محمد</t>
+          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3970,24 +3983,24 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>211043</t>
+          <t>221556</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>حلا محمد ياسر</t>
+          <t>حازم اسامه شحاده</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -3997,24 +4010,24 @@
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>211046</t>
+          <t>221560</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>نوف عبد الرحمن عبد الجليل محمد</t>
+          <t>شام خالد درويش</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4024,24 +4037,24 @@
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>211079</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>حسن محمد محى الدين بابكر</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4051,24 +4064,24 @@
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>211086</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4078,24 +4091,24 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>211092</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>يارا اسماعيل ابراهيم درويش</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4105,24 +4118,24 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>211096</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4132,24 +4145,24 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>211102</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>باسل عبد المجيد مصطفى الاعمر</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4159,24 +4172,24 @@
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>211111</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>عمار عبد المهيمن الساخن</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4186,24 +4199,24 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>211118</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>راما سماعيل محمود فرج فريحات</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4213,24 +4226,24 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>211131</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4240,24 +4253,24 @@
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>211133</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4267,24 +4280,24 @@
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>ضرغام بشير حامد بشير</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4294,24 +4307,24 @@
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>211146</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4321,24 +4334,24 @@
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>211147</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>رزان محمد بله عبد الله</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4348,24 +4361,24 @@
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>211167</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>امينه مجدى محمد مشعل</t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4375,24 +4388,24 @@
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>211169</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>سفيان عبد الله محمد حمران</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4402,24 +4415,24 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>211174</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4429,24 +4442,24 @@
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>211175</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4456,24 +4469,24 @@
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>211177</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4483,24 +4496,24 @@
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>211189</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>عمر عبد العزيز الزعبي</t>
+          <t xml:space="preserve">ريم احمد غزال </t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4510,24 +4523,24 @@
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>211197</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4537,24 +4550,24 @@
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>211216</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>احمد على محمد على</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4564,24 +4577,24 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>211217</t>
+          <t>221642</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
+          <t>فاطمة محمد عبد الله عبد الرازق</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4591,24 +4604,24 @@
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>211232</t>
+          <t>221652</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>دانه جاسر محمد سعيد مسعود</t>
+          <t>يامن احمد محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4618,24 +4631,24 @@
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>211242</t>
+          <t>221655</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
+          <t xml:space="preserve">أماني شوقي حسن احمد </t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4645,24 +4658,24 @@
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>211245</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>زهره حامد سعد الله عبد الله</t>
+          <t xml:space="preserve">محمد احمد العطا حمد </t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4672,24 +4685,24 @@
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>211251</t>
+          <t>221658</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>انوار يوسف موسى الزعبى</t>
+          <t>روين محمد أحمد بورجي</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4699,24 +4712,24 @@
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>211262</t>
+          <t>221672</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>رغد ابراهيم محمد ابو طير</t>
+          <t>نهى النزير عبدالرحمن الجعلي</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4726,24 +4739,24 @@
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>211263</t>
+          <t>221673</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
+          <t>عنود فيصل على حمد</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4753,24 +4766,24 @@
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>211267</t>
+          <t>221676</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>قيس اسامه عبد الله هياجنه</t>
+          <t>ساميه أحمد محمد طيطي</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4780,24 +4793,24 @@
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>211276</t>
+          <t>221677</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>كمال وحيد محمد كمال عناتى</t>
+          <t xml:space="preserve">شاكر خالد قسم الله الجيلانى  </t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4807,24 +4820,24 @@
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>211286</t>
+          <t>221683</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>اياد نبيل صادق طل</t>
+          <t>عمرو وليد خالد كليم</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4834,24 +4847,24 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>211288</t>
+          <t>221686</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>Ibrahim Taha Salama Helles</t>
+          <t xml:space="preserve">عبد الرحمن اسماعيل كمال احمرو </t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4861,24 +4874,24 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>211295</t>
+          <t>221688</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>هبه عبد الحميد عبد الله محمد</t>
+          <t xml:space="preserve">سليمان اياد سليمان الفليت </t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4888,24 +4901,24 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>211298</t>
+          <t>221689</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>احمد عدنان محمود الخالد</t>
+          <t>هادي عيسى مهدي حسن محمد القبيطي</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4915,24 +4928,24 @@
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>211299</t>
+          <t>221694</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>محمد منير راضى خرفان</t>
+          <t>محمد جمال محمد حاج</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4942,24 +4955,24 @@
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>211311</t>
+          <t>221697</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>سولارا حسن صلاح الدين محمد</t>
+          <t xml:space="preserve">زينب عبدالغفور محمد عبدالله </t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4969,24 +4982,24 @@
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>211348</t>
+          <t>221700</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>محمد السيد عبد المنعم الغباشى</t>
+          <t xml:space="preserve">ناصر محمد ناصر علي </t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -4996,24 +5009,24 @@
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>211399</t>
+          <t>221701</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>بسنت علاء الدين احمد محمد مرزوق</t>
+          <t>محمود سليم سليمان زبن</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5023,24 +5036,24 @@
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>211415</t>
+          <t>221702</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>محمد هشام محمد عبد الوهاب</t>
+          <t>محمود ابراهيم توفيق أبو هجرس</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5050,24 +5063,24 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>211451</t>
+          <t>221706</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>كارين ماجد شرقاوى يعقوب خليل</t>
+          <t>على محمد على بابكر</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5077,24 +5090,24 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>211457</t>
+          <t>221707</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>جودى محمد احمد شديد</t>
+          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5104,24 +5117,24 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>211486</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5131,24 +5144,24 @@
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>211539</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>عمرو هانى صالح امين حسين الصفتى</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5158,24 +5171,24 @@
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>211559</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>رقيه صفوان محمد تيسير خضير</t>
+          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5185,24 +5198,24 @@
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>211560</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>عمار ياسر الصادق محمد</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5212,24 +5225,24 @@
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>211575</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>ايلاف الصادق عبد الملك ابراهيم</t>
+          <t xml:space="preserve">على الحسن </t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5239,24 +5252,24 @@
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>211579</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
+          <t xml:space="preserve">مروان محمد فتحى محمد </t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5266,24 +5279,24 @@
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>211590</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
+          <t xml:space="preserve">بتول باسم قاووق </t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5293,24 +5306,24 @@
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>211598</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>اسحاق محمد على قاسم الصلولى</t>
+          <t xml:space="preserve">حسين احمد حسين الحسن </t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5320,24 +5333,24 @@
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>211603</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>ريم رائد عبد الرحمن ابو جاسر</t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5347,24 +5360,24 @@
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>211617</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>عادل عبد السلام احمد العبادى</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5374,24 +5387,24 @@
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>211619</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>معاذ سامر عبد العزيز دردس</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5401,24 +5414,24 @@
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>211621</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>عثمان محمد نادر كامل</t>
+          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5428,24 +5441,24 @@
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>211623</t>
+          <t>221757</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>يحيى عز العرب احمد العزه</t>
+          <t xml:space="preserve">بشرى فكري محمد احمد الحميدي </t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5455,24 +5468,24 @@
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>211631</t>
+          <t>221761</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>فرح احمد عبد الهادى الزعاتره</t>
+          <t xml:space="preserve">كمال رامى كمال عبد العال </t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5482,24 +5495,24 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>211635</t>
+          <t>221763</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
+          <t>مهند فراس الاديب</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5509,24 +5522,24 @@
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>211637</t>
+          <t>221766</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>مؤيد جميل راسم الريماوى</t>
+          <t>خالد وليد سالم</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5536,24 +5549,24 @@
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>211643</t>
+          <t>221767</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>Omar A H Daraghmeh</t>
+          <t>وعد صديق عبدالرحمن يحى</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5563,24 +5576,24 @@
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>211648</t>
+          <t>221773</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
+          <t>محمود عبد السلام الشيخ</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5590,24 +5603,24 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>211655</t>
+          <t>221775</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
+          <t>عبد الرحمن عمر محمد الحايك</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5617,24 +5630,24 @@
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>211662</t>
+          <t>221781</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>غاده بنت جابر بن محمد طوطيه</t>
+          <t>نون عبدالله فضل ادريس</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5644,24 +5657,24 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>211663</t>
+          <t>221784</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>ايمن احمد على عبده</t>
+          <t>روان الجيلى خضر محمد</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5671,24 +5684,24 @@
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>211670</t>
+          <t>221786</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>اسامه اديب على عبده الشامى</t>
+          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5698,24 +5711,24 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>211672</t>
+          <t>221797</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
+          <t>محمد يوسف محمود زهري</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5725,24 +5738,24 @@
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>211680</t>
+          <t>221803</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>لمى طلال محمد البدور</t>
+          <t>يحيى ابراهيم محمد الدراغمه</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5752,24 +5765,24 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>211687</t>
+          <t>221805</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>خيران سلطان على الحيجنه</t>
+          <t>ربا باسبار نورالدين عثمان</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5779,24 +5792,24 @@
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>211690</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Younes Zouhair Almbarak</t>
+          <t>زياد محمد حسنى عليوه</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5806,24 +5819,24 @@
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>211697</t>
+          <t>221813</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>فاطمه الهادى ابراهيم احمد</t>
+          <t>شمائل عبدالله مصطفي محمد الحسين</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5833,24 +5846,24 @@
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>211710</t>
+          <t>221816</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>جنات فايز عزمى شماس</t>
+          <t xml:space="preserve">رغد محمد عبدالملك الضحياني </t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5860,24 +5873,24 @@
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>211711</t>
+          <t>221817</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>احمد عبد الله سالم الحويان</t>
+          <t>عبد الرحمن حسين سيد احمد</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5887,24 +5900,24 @@
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>211713</t>
+          <t>221830</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>صفاء محمود عبد الرحيم الامين</t>
+          <t>مهجة خالد الضو مصطفى</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5914,24 +5927,24 @@
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>211720</t>
+          <t>221832</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>ساره محمد احمد البيروتى</t>
+          <t xml:space="preserve">صفيه عبدالله حامد بابكر </t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5941,24 +5954,24 @@
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>211723</t>
+          <t>221834</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>احمد حسن خليفه التليسى</t>
+          <t xml:space="preserve">خالد مصطفى صالحه </t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5968,24 +5981,24 @@
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>211725</t>
+          <t>221841</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>زينب رفعت محمد عبد القيوم</t>
+          <t>جميل تمام سيجري</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -5995,24 +6008,24 @@
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>211728</t>
+          <t>221844</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
+          <t>عمر الخطاب عمر محمد احمد</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6022,24 +6035,24 @@
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>211732</t>
+          <t>221847</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>محمد يامن فراس الامام</t>
+          <t>عمر خالد ياسين الرحاحله</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6049,24 +6062,24 @@
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>211735</t>
+          <t>221854</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
+          <t>محمد احمد يحيى الارحبي</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6076,24 +6089,24 @@
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>211737</t>
+          <t>221859</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صلاح الدين محمد محمود الدروبى  </t>
+          <t>ايلاف يوسف محمد احمد</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6103,24 +6116,24 @@
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>211741</t>
+          <t>221860</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد منار احمد العوينى  </t>
+          <t>حمزه صالح ابراهيم ابو شاويش</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6130,24 +6143,24 @@
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>211742</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>فيصل محمد احمد قواقزه</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6157,24 +6170,24 @@
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>211745</t>
+          <t>221872</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">زيد خضر يةسف ابو ناب </t>
+          <t xml:space="preserve">رهف الصادق محمد حسن </t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6184,24 +6197,24 @@
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>211750</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>محمد عباس محمد محمد ابو عساج</t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6211,24 +6224,24 @@
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>211752</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حلا رياض حمضمض </t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6238,24 +6251,24 @@
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>211753</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>ياسر سمير السيد محمد</t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6265,24 +6278,24 @@
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>211757</t>
+          <t>221891</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>مريم وليد سالم</t>
+          <t>ماجد عبد الرحمن تركى رواشدة</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6292,24 +6305,24 @@
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>211764</t>
+          <t>221896</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فؤاد تيسير سعيد ابو اللبن  </t>
+          <t xml:space="preserve">بيان ادم احمد على  برشى </t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6319,24 +6332,24 @@
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>211765</t>
+          <t>221913</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>محمد عبد الرقيب فايد عبد العظيم</t>
+          <t>رشا حسن محمد حاج محمد احمد</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6346,24 +6359,24 @@
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>211769</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>محمد ايمن الجمعه الحديد</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6373,24 +6386,24 @@
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>211777</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>غاده خالد شرف الدين حاج يوسف</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6400,24 +6413,24 @@
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>211783</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حمزه احمد فضل العزازى  </t>
+          <t xml:space="preserve">خالد محمد ترياقى </t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6427,24 +6440,24 @@
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>211790</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>اصيل محمود زريقات</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6454,24 +6467,24 @@
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>211791</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>سيف الدين محمد احمد محمد</t>
+          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6481,24 +6494,24 @@
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>211799</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>على محمد امين اليمانى</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6508,24 +6521,24 @@
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>211822</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>محمد مطر اكرم مقاط</t>
+          <t xml:space="preserve">ابرار كمال محمد عمر </t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6535,24 +6548,24 @@
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>211854</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>عطيه عائد محمد مصباح حموده</t>
+          <t xml:space="preserve">رنا محمد مصطفى على </t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6562,24 +6575,24 @@
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>211865</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>ساره جميل سيد محمد الجندى</t>
+          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6589,24 +6602,24 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>211866</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>امير عناد خلف الثوابيه</t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6616,24 +6629,24 @@
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>211872</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>عليان محمد عليان العزام</t>
+          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6643,24 +6656,24 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>211876</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>فارس اسعد صادق ابو رميله</t>
+          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6670,24 +6683,24 @@
       </c>
       <c r="D230" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>211877</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>عفراء محمود حاج على احمد</t>
+          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6697,24 +6710,24 @@
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>211882</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>شمس فخر الدين محمد الزبير</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6724,24 +6737,24 @@
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>211887</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>عايش غسان عايش الهباهبه</t>
+          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6751,24 +6764,24 @@
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>211889</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>فاطمه الزهراء ابرهيم محجوب فضل المولى</t>
+          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6778,24 +6791,24 @@
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>211895</t>
+          <t>222080</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>غفران كاظم ابراهيم انشاصى</t>
+          <t xml:space="preserve">عبد الرحمن اسد الله حامد احمد </t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6805,24 +6818,24 @@
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>211907</t>
+          <t>222081</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>دانيه معاويه محمد عمر باجابر</t>
+          <t>عفيف عبد الجبار العبيد الصديق</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6832,24 +6845,24 @@
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>211908</t>
+          <t>222085</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>نفيسه عادل احمد محمد</t>
+          <t xml:space="preserve">مهند معاوية صالح جقدولة </t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6859,24 +6872,24 @@
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>211926</t>
+          <t>222089</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مريم عبد المنعم الشيبانى عاشور   </t>
+          <t xml:space="preserve">نزار باسل عبد السميع جوده </t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6886,24 +6899,24 @@
       </c>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>211933</t>
+          <t>222091</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح عبد الكريم محمد قاسم </t>
+          <t>سالم فايز سالم البلوى</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6913,24 +6926,24 @@
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>211936</t>
+          <t>222094</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>مريم صلاح الدين على عبد الله</t>
+          <t xml:space="preserve">كريم برعى مكى برعى </t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6940,24 +6953,24 @@
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>211959</t>
+          <t>222096</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">معتصم محمد فتحى مصباح العابودى  </t>
+          <t>محمود النميرى محمود ابراهيم</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6967,24 +6980,24 @@
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>211962</t>
+          <t>222102</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد سليمان شطناوى</t>
+          <t>محمد حسن حمدو حسن</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -6994,24 +7007,24 @@
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>211973</t>
+          <t>222106</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>رزان اشرف صلاح محمد</t>
+          <t>عمرو ياسر عثمان عبد المجيد</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7021,24 +7034,24 @@
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>211975</t>
+          <t>222111</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>Hoda Mojadidy</t>
+          <t xml:space="preserve">ليازيا الفاتح صالح ادريس </t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7048,24 +7061,24 @@
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>211979</t>
+          <t>222123</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>رند رائد يوسف طليب</t>
+          <t>عبد الله العوض سليمان بابكر</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7075,24 +7088,24 @@
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>211984</t>
+          <t>201577</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>توفيق محمد جلال سراج</t>
+          <t xml:space="preserve"> عزام عبد الله على حسن الحكمى</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7102,24 +7115,24 @@
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>211992</t>
+          <t>210288</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>اياس رائد محمود النحاس</t>
+          <t>عمرو اشرف جابر رمضان</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7129,24 +7142,24 @@
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>211998</t>
+          <t>210306</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>سلاف حسام الدين الرفاعى</t>
+          <t>احمد اشرف احمد رجب غزال</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7156,24 +7169,24 @@
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>212028</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>سنيوره خالد محمد جبر</t>
+          <t>احمد سامح جمعه عبد المجيد محمد</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7183,24 +7196,24 @@
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>212038</t>
+          <t>210333</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>رقيه حسين محمد رضا</t>
+          <t>احمد محمد عبد الجواد مندور هاشم</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7210,24 +7223,24 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>212054</t>
+          <t>210334</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>عدى ابراهيم العباس</t>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7237,24 +7250,24 @@
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>212060</t>
+          <t>210340</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>محمد عثمان ابراهيم تمر</t>
+          <t>احمد منتصر سيد منتصر احمد</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7264,24 +7277,24 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>212071</t>
+          <t>210385</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>عبد المجيد ناصر حسن قفله</t>
+          <t>ايمان طارق مصطفى سيد احمد</t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">
@@ -7291,24 +7304,24 @@
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>212079</t>
+          <t>210387</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>اروى عوض محمد همد</t>
+          <t>ايمان محمد يوسف محمد</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -7318,24 +7331,24 @@
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>212083</t>
+          <t>210401</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>عبد الكريم كمال عوض محمد عبد القادر</t>
+          <t>بافلى عماد غبريال مترى</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
@@ -7345,24 +7358,24 @@
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>212084</t>
+          <t>210421</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>ست البنات عثمان حمد عثمان</t>
+          <t>توماس مرجان فوزى شكر الله</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -7372,24 +7385,24 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>212094</t>
+          <t>210435</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>رهف مالك فخرى الجواهره</t>
+          <t>حسن محمد حسن مرسى</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -7399,24 +7412,24 @@
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>212101</t>
+          <t>210438</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>Haoua Souleyman Yaya</t>
+          <t>حسينى طارق حسينى محمد الطويل</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -7426,24 +7439,24 @@
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>212121</t>
+          <t>210509</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>ماريا يوسف عثمان على</t>
+          <t>شروق محمود محمد محمود فرحات</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
@@ -7453,24 +7466,24 @@
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>212123</t>
+          <t>210513</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>محمد يونس سرهيد لهيب</t>
+          <t>شهد عبد الرحمن احمد الشاذلى</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -7480,24 +7493,24 @@
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>212135</t>
+          <t>210516</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>شهد فيصل سر الختم المكى</t>
+          <t>شرين سيف النصر</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -7507,24 +7520,24 @@
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>212137</t>
+          <t>210558</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>سجى ايمن مصطفى عبد الحميد</t>
+          <t>على عبد الرؤف محمد بكرى</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7534,24 +7547,24 @@
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>212144</t>
+          <t>210621</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>الن يوسف حامد يوسف</t>
+          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
@@ -7561,24 +7574,24 @@
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>212151</t>
+          <t>210686</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>ماهر صالح جابر عثمان</t>
+          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7588,24 +7601,24 @@
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>212152</t>
+          <t>210703</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>محمد مصطفى عبد اللطيف مصطفى</t>
+          <t>منى ذو الهمه محمد الطبلاوى غنيم</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -7615,24 +7628,24 @@
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>212154</t>
+          <t>210727</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>مؤيد سلوم سالم</t>
+          <t>ندى احمد عبد الله احمد عبد المجيد</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7642,24 +7655,24 @@
       </c>
       <c r="D266" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>212155</t>
+          <t>210762</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>مجد عبد الجبار الفاضل</t>
+          <t>هند السيد محمد السعيد سيد احمد</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -7669,24 +7682,24 @@
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>212161</t>
+          <t>210799</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>شيرين خالد عبد المنعم محمد</t>
+          <t>حسن ممدوح حسن صغير</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
@@ -7696,24 +7709,24 @@
       </c>
       <c r="D268" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>212183</t>
+          <t>210809</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>سالى عبد الباسط سليمان مصطفى</t>
+          <t>خطاب خالد هادى الوادعى</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -7723,24 +7736,24 @@
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>212184</t>
+          <t>210828</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saadatu Mohammed Ahmed </t>
+          <t>Manal Hamid Nour Mahamat Terab</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
@@ -7750,24 +7763,24 @@
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>212193</t>
+          <t>210832</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>افنان عكرمه حسن محمد</t>
+          <t>عصام الدين عادل محمد على</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -7777,24 +7790,24 @@
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>212195</t>
+          <t>210836</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>مؤيد ادريس محمد نول</t>
+          <t>عمه ديد درار</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
@@ -7804,24 +7817,24 @@
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>212205</t>
+          <t>210839</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>على محمد الشيخ دفع الله</t>
+          <t>شكرى محمد حاد</t>
         </is>
       </c>
       <c r="C273" s="4" t="inlineStr">
@@ -7831,24 +7844,24 @@
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>212245</t>
+          <t>210858</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>الاء مطر فرحه محمد</t>
+          <t>محمد ابراهيم احمد عرجه</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
@@ -7858,24 +7871,24 @@
       </c>
       <c r="D274" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>212248</t>
+          <t>210880</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>عمر يعقوب محمد فقير</t>
+          <t>نور الهدى ماجد عبد الامير</t>
         </is>
       </c>
       <c r="C275" s="4" t="inlineStr">
@@ -7885,24 +7898,24 @@
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>212254</t>
+          <t>210887</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>الرشيد احمد الرشيد سيد احمد</t>
+          <t>احمد عبد الله عبد القادر محمد</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
@@ -7912,24 +7925,24 @@
       </c>
       <c r="D276" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
-          <t>212258</t>
+          <t>210892</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>سحر حسين جعفر حسن</t>
+          <t>Yusof Barghouty</t>
         </is>
       </c>
       <c r="C277" s="4" t="inlineStr">
@@ -7939,24 +7952,24 @@
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>212266</t>
+          <t>210902</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>لجين ابو بكر الامين على</t>
+          <t>عبير ميسره محى الدين قاسم</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
@@ -7966,24 +7979,24 @@
       </c>
       <c r="D278" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
         <is>
-          <t>212279</t>
+          <t>210905</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>قوارير خالد حاج حسن عثمان</t>
+          <t>ايمن خالد خليل الرجوب</t>
         </is>
       </c>
       <c r="C279" s="4" t="inlineStr">
@@ -7993,24 +8006,24 @@
       </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>212283</t>
+          <t>210910</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>تسنيم خالد محمد فقير</t>
+          <t>ابو بكر عبد الرحيم سنجك محمد</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
@@ -8020,24 +8033,24 @@
       </c>
       <c r="D280" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
         <is>
-          <t>212291</t>
+          <t>210921</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>عبد الله مصطفى عزيزه</t>
+          <t>براء علاء محمد البيوك</t>
         </is>
       </c>
       <c r="C281" s="4" t="inlineStr">
@@ -8047,24 +8060,24 @@
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>212306</t>
+          <t>210927</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>حسين عماد الدين حسين الطاهر هلال</t>
+          <t>ايمان فؤاد حامد ابو حمره</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
@@ -8074,24 +8087,24 @@
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
         <is>
-          <t>212307</t>
+          <t>210939</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>سدره حسن عبد الله</t>
+          <t>خليل جبر احمد على العبيى</t>
         </is>
       </c>
       <c r="C283" s="4" t="inlineStr">
@@ -8101,24 +8114,24 @@
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>212314</t>
+          <t>210941</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>مرتضى محمد الصادق محمد</t>
+          <t xml:space="preserve">مصطفى امين غانم  </t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -8128,24 +8141,24 @@
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
         <is>
-          <t>212315</t>
+          <t>210947</t>
         </is>
       </c>
       <c r="B285" s="4" t="inlineStr">
         <is>
-          <t>مجتبى محمد الصادق محمد</t>
+          <t>مريم بنت يعقوب بن يوسف الحمود</t>
         </is>
       </c>
       <c r="C285" s="4" t="inlineStr">
@@ -8155,24 +8168,24 @@
       </c>
       <c r="D285" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>212320</t>
+          <t>210965</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>ربى عبد الله احمد بدرى</t>
+          <t>همام احمد خليل</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -8182,24 +8195,24 @@
       </c>
       <c r="D286" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
         <is>
-          <t>212324</t>
+          <t>210982</t>
         </is>
       </c>
       <c r="B287" s="4" t="inlineStr">
         <is>
-          <t>محمد وليد عثمان جلى</t>
+          <t>عمر نصر الدين محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C287" s="4" t="inlineStr">
@@ -8209,24 +8222,24 @@
       </c>
       <c r="D287" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>212333</t>
+          <t>210984</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>غفران امير سعد عبد الله</t>
+          <t>وسيم رزق محمد سهمود</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -8236,24 +8249,24 @@
       </c>
       <c r="D288" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="inlineStr">
         <is>
-          <t>212345</t>
+          <t>210994</t>
         </is>
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
-          <t>احمد امير محمد خير الله</t>
+          <t xml:space="preserve">نور ماجد فايز ابو جامع </t>
         </is>
       </c>
       <c r="C289" s="4" t="inlineStr">
@@ -8263,24 +8276,24 @@
       </c>
       <c r="D289" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>212346</t>
+          <t>211002</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>فخر الدين على محمد سعيد</t>
+          <t>منيه خالد الشيخ حاج محمود</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -8290,24 +8303,24 @@
       </c>
       <c r="D290" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="4" t="inlineStr">
         <is>
-          <t>212347</t>
+          <t>211003</t>
         </is>
       </c>
       <c r="B291" s="4" t="inlineStr">
         <is>
-          <t>مصطفى كمال عبد الجليل محمد</t>
+          <t>محمد عادل محمد عبد الله العريفى</t>
         </is>
       </c>
       <c r="C291" s="4" t="inlineStr">
@@ -8317,24 +8330,24 @@
       </c>
       <c r="D291" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>212362</t>
+          <t>211024</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>غفران محمد الغالى على يوسف</t>
+          <t>جاسم محمد المحيمد الخلف</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -8344,24 +8357,24 @@
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
         <is>
-          <t>212368</t>
+          <t>211025</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">شهد عبد الله محمد النور </t>
+          <t>شموخ على محمد حمادى</t>
         </is>
       </c>
       <c r="C293" s="4" t="inlineStr">
@@ -8371,24 +8384,24 @@
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>212373</t>
+          <t>211029</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>ابراهيم فيصل ابراهيم محمد</t>
+          <t>عبد الرحمن الضو النور على</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -8398,24 +8411,24 @@
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="4" t="inlineStr">
         <is>
-          <t>212377</t>
+          <t>211044</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>سفانه طاهر محمد عمر</t>
+          <t>لجين فتحى عدلى محمد عبد الله</t>
         </is>
       </c>
       <c r="C295" s="4" t="inlineStr">
@@ -8425,24 +8438,24 @@
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>212414</t>
+          <t>211048</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>رينادا ابراهيم سعيد محمد على</t>
+          <t xml:space="preserve">فادى نواف الحريرى </t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -8452,24 +8465,24 @@
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
         <is>
-          <t>212431</t>
+          <t>211056</t>
         </is>
       </c>
       <c r="B297" s="4" t="inlineStr">
         <is>
-          <t>صفاء ذكى عباس عبد المطلب</t>
+          <t>محمد وداد احمد وداد فرج</t>
         </is>
       </c>
       <c r="C297" s="4" t="inlineStr">
@@ -8479,24 +8492,24 @@
       </c>
       <c r="D297" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>212433</t>
+          <t>211060</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>مصعب مصطفى ادم حامد</t>
+          <t>مروه فرحان الداموك</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -8506,24 +8519,24 @@
       </c>
       <c r="D298" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
         <is>
-          <t>212440</t>
+          <t>211063</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>ملاك المعتز عبد الماجد الحاج</t>
+          <t>مايا مراد موسى عبد القادر</t>
         </is>
       </c>
       <c r="C299" s="4" t="inlineStr">
@@ -8533,24 +8546,24 @@
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>212453</t>
+          <t>211069</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد عبد الله عثمان الشيخ </t>
+          <t xml:space="preserve">احمد رياض محمد صافى </t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
@@ -8560,24 +8573,24 @@
       </c>
       <c r="D300" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="4" t="inlineStr">
         <is>
-          <t>212455</t>
+          <t>211073</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">لمى مسلم امام ابراهيم </t>
+          <t>حنين ايمن فؤاد دغباج</t>
         </is>
       </c>
       <c r="C301" s="4" t="inlineStr">
@@ -8587,24 +8600,24 @@
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>212477</t>
+          <t>211934</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>ادريس على عبد الله عبد القادر</t>
+          <t>زيدون احمد محمود درادكه</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
@@ -8614,24 +8627,24 @@
       </c>
       <c r="D302" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
         <is>
-          <t>212479</t>
+          <t>220467</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>مناسك معاويه مصطفى ادم</t>
+          <t>خليل صالح الحريري</t>
         </is>
       </c>
       <c r="C303" s="4" t="inlineStr">
@@ -8641,24 +8654,24 @@
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>212501</t>
+          <t>221082</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>اسيل عاطف عوض عبد القادر</t>
+          <t>جنى ايمن احمد شديد</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
@@ -8668,24 +8681,24 @@
       </c>
       <c r="D304" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="inlineStr">
         <is>
-          <t>212511</t>
+          <t>221105</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس هيثم محمود الحسن    </t>
+          <t>ديفيد ادوار شكري برتلة رزق</t>
         </is>
       </c>
       <c r="C305" s="4" t="inlineStr">
@@ -8695,24 +8708,24 @@
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>212587</t>
+          <t>221142</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>رحمه محمد عبد الحميد حسن</t>
+          <t>سيف الدين وليد محمد على</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
@@ -8722,24 +8735,24 @@
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="4" t="inlineStr">
         <is>
-          <t>212588</t>
+          <t>221155</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">وفاء مرسى عبد القادر محمد  </t>
+          <t xml:space="preserve">عبد الرحمن محمد سيد حنتيرة </t>
         </is>
       </c>
       <c r="C307" s="4" t="inlineStr">
@@ -8749,232 +8762,16 @@
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B1E</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="3" t="inlineStr">
-        <is>
-          <t>212592</t>
-        </is>
-      </c>
-      <c r="B308" s="3" t="inlineStr">
-        <is>
-          <t>امل اشرف حسين عبد العال</t>
-        </is>
-      </c>
-      <c r="C308" s="3" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D308" s="3" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E308" s="3" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="4" t="inlineStr">
-        <is>
-          <t>212598</t>
-        </is>
-      </c>
-      <c r="B309" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">نصر الله عامر العبد  </t>
-        </is>
-      </c>
-      <c r="C309" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D309" s="4" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E309" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="3" t="inlineStr">
-        <is>
-          <t>221758</t>
-        </is>
-      </c>
-      <c r="B310" s="3" t="inlineStr">
-        <is>
-          <t>سعاد عدنان محمد دعيس يونس</t>
-        </is>
-      </c>
-      <c r="C310" s="3" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D310" s="3" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E310" s="3" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="4" t="inlineStr">
-        <is>
-          <t>221884</t>
-        </is>
-      </c>
-      <c r="B311" s="4" t="inlineStr">
-        <is>
-          <t>ليان ياسر عطايا</t>
-        </is>
-      </c>
-      <c r="C311" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D311" s="4" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E311" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="3" t="inlineStr">
-        <is>
-          <t>223003</t>
-        </is>
-      </c>
-      <c r="B312" s="3" t="inlineStr">
-        <is>
-          <t>تسنيم محمد انور</t>
-        </is>
-      </c>
-      <c r="C312" s="3" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D312" s="3" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E312" s="3" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="4" t="inlineStr">
-        <is>
-          <t>223004</t>
-        </is>
-      </c>
-      <c r="B313" s="4" t="inlineStr">
-        <is>
-          <t>هاجر عماد حسين حسين</t>
-        </is>
-      </c>
-      <c r="C313" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D313" s="4" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E313" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="3" t="inlineStr">
-        <is>
-          <t>223005</t>
-        </is>
-      </c>
-      <c r="B314" s="3" t="inlineStr">
-        <is>
-          <t>عمر محمد احمد على محمد حفناوى</t>
-        </is>
-      </c>
-      <c r="C314" s="3" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D314" s="3" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E314" s="3" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="4" t="inlineStr">
-        <is>
-          <t>223006</t>
-        </is>
-      </c>
-      <c r="B315" s="4" t="inlineStr">
-        <is>
-          <t>محمد فتحى احمد الحسينى</t>
-        </is>
-      </c>
-      <c r="C315" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D315" s="4" t="inlineStr">
-        <is>
-          <t>B2F</t>
-        </is>
-      </c>
-      <c r="E315" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Group B1 2025-2026.xlsx</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
@@ -479,7 +479,7 @@
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,7 +532,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Group B1 2025-2026.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>

--- a/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_special_internal_1_reference_data.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
@@ -2854,19 +2854,19 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>221384</t>
+          <t>221382</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى فهد عبد الباقى  </t>
+          <t xml:space="preserve">اميرة لؤى عبد الشكور الطويل لم يسدد </t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -2881,19 +2881,19 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>221385</t>
+          <t>221384</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشير طراد الحراكىى </t>
+          <t xml:space="preserve">مصطفى فهد عبد الباقى  </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2908,19 +2908,19 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>221396</t>
+          <t>221385</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>بشرى عادل عاشور تريبل</t>
+          <t xml:space="preserve">بشير طراد الحراكىى </t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -2935,19 +2935,19 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>221399</t>
+          <t>221396</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">موسى جيله حسن </t>
+          <t>بشرى عادل عاشور تريبل</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2962,19 +2962,19 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>221402</t>
+          <t>221399</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم سليمان جديد </t>
+          <t xml:space="preserve">موسى جيله حسن </t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -2989,19 +2989,19 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>221419</t>
+          <t>221402</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>محمد طه عبد الراضى سليم</t>
+          <t xml:space="preserve">ابراهيم سليمان جديد </t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3016,19 +3016,19 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>221424</t>
+          <t>221419</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">روند نائل محمد زايدة </t>
+          <t>محمد طه عبد الراضى سليم</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3043,19 +3043,19 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>221434</t>
+          <t>221424</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>محمد اسامه محمد البكري باعلي</t>
+          <t xml:space="preserve">روند نائل محمد زايدة </t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3070,19 +3070,19 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>221440</t>
+          <t>221425</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>وعد مصعب دفع الله احمد</t>
+          <t>مازن كمال محمد عبدالحميد</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3097,19 +3097,19 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>221441</t>
+          <t>221431</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>شهد مصعب دفع الله احمد</t>
+          <t xml:space="preserve">ماريا وليد سالم الشعيبات </t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3124,19 +3124,19 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>221445</t>
+          <t>221434</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>نور موفق العينيه</t>
+          <t>محمد اسامه محمد البكري باعلي</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3151,19 +3151,19 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>221451</t>
+          <t>221440</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>سيف الدين وليد ابراهيم احمد</t>
+          <t>وعد مصعب دفع الله احمد</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3178,19 +3178,19 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>221452</t>
+          <t>221441</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>ساندى اقلاديوس صبحى بطرس</t>
+          <t>شهد مصعب دفع الله احمد</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3205,19 +3205,19 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>221453</t>
+          <t>221445</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>مكسيموس مرقص فاروق غبريال</t>
+          <t>نور موفق العينيه</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3232,19 +3232,19 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>221454</t>
+          <t>221451</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>كيرلس ريمون منير حزين</t>
+          <t>سيف الدين وليد ابراهيم احمد</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3259,19 +3259,19 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>221455</t>
+          <t>221452</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>احمد خالد فؤاد خالد</t>
+          <t>ساندى اقلاديوس صبحى بطرس</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3286,19 +3286,19 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>221456</t>
+          <t>221453</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>عمرو اشرف فتحى محمد</t>
+          <t>مكسيموس مرقص فاروق غبريال</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3313,19 +3313,19 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>221457</t>
+          <t>221454</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>مؤمن ايهاب فتحى محمد</t>
+          <t>كيرلس ريمون منير حزين</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3340,19 +3340,19 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>221462</t>
+          <t>221455</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>روان احمد عبد الفتاح مصطفى احمد مصطفى</t>
+          <t>احمد خالد فؤاد خالد</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3367,19 +3367,19 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>221463</t>
+          <t>221456</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>كريم وليد فتحى ابراهيم السيد</t>
+          <t>عمرو اشرف فتحى محمد</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3394,19 +3394,19 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>221465</t>
+          <t>221457</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>ملك عادل فراج عبد العال</t>
+          <t>مؤمن ايهاب فتحى محمد</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3421,19 +3421,19 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>221467</t>
+          <t>221462</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبدالحي عبدالمنعم الشيباني  </t>
+          <t>روان احمد عبد الفتاح مصطفى احمد مصطفى</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3448,19 +3448,19 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>221469</t>
+          <t>221463</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>لؤي مازن عوني حموده</t>
+          <t>كريم وليد فتحى ابراهيم السيد</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3475,19 +3475,19 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>221472</t>
+          <t>221465</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسام عمار عبدالله جعوان  </t>
+          <t>ملك عادل فراج عبد العال</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>221482</t>
+          <t>221467</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين محمد حسين ابو مغصيب   </t>
+          <t xml:space="preserve">عبدالحي عبدالمنعم الشيباني  </t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3529,19 +3529,19 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>221497</t>
+          <t>221469</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">تركي محمد علي الحاج </t>
+          <t>لؤي مازن عوني حموده</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3556,19 +3556,19 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>221499</t>
+          <t>221472</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم خليل محمد غربيه </t>
+          <t xml:space="preserve">حسام عمار عبدالله جعوان  </t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3583,19 +3583,19 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>221501</t>
+          <t>221482</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله فتح الرحمن محمد عمر  </t>
+          <t xml:space="preserve">حسين محمد حسين ابو مغصيب   </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3610,19 +3610,19 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>221503</t>
+          <t>221492</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>رند عادل عبد الفتاح شحاده</t>
+          <t xml:space="preserve">وائل محمد هائل عبدالجليل </t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3637,19 +3637,19 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>221514</t>
+          <t>221497</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفي عمر عبدالهادى محمد  </t>
+          <t xml:space="preserve">تركي محمد علي الحاج </t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3664,19 +3664,19 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>221516</t>
+          <t>221499</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>فاطمه عبدالحفيظ محمد صالح</t>
+          <t xml:space="preserve">ابراهيم خليل محمد غربيه </t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3691,19 +3691,19 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>221519</t>
+          <t>221501</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>رغد شادي محسن خصروف</t>
+          <t xml:space="preserve">عبد الله فتح الرحمن محمد عمر  </t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3718,19 +3718,19 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>221526</t>
+          <t>221503</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
+          <t>رند عادل عبد الفتاح شحاده</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3745,19 +3745,19 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>221529</t>
+          <t>221514</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>شهد بدرالدين مصطفى حسين</t>
+          <t xml:space="preserve">مصطفي عمر عبدالهادى محمد  </t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3772,19 +3772,19 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>221532</t>
+          <t>221516</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>عائشة عمر عثمان نورى</t>
+          <t>فاطمه عبدالحفيظ محمد صالح</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3799,19 +3799,19 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>221533</t>
+          <t>221519</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد الصديق احمد</t>
+          <t>رغد شادي محسن خصروف</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3821,24 +3821,24 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>221526</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>يوسف عماد محمد سيد احمد حبرك</t>
+          <t xml:space="preserve">رزان محمد الصادق على الشيخ </t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3848,24 +3848,24 @@
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>221538</t>
+          <t>221529</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
+          <t>شهد بدرالدين مصطفى حسين</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3875,24 +3875,24 @@
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>221541</t>
+          <t>221532</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساره محمد محمود مالك </t>
+          <t>عائشة عمر عثمان نورى</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3902,24 +3902,24 @@
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>B1C</t>
+          <t>B1B</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>221542</t>
+          <t>221533</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اريام عمر الخضير  </t>
+          <t>عمر محمد الصديق احمد</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3934,19 +3934,19 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>221548</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>مريم احمد صباغ</t>
+          <t>يوسف عماد محمد سيد احمد حبرك</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3961,19 +3961,19 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>221552</t>
+          <t>221538</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
+          <t>براءه عبدالرحمن عباس عبدالصمد صالح</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3988,19 +3988,19 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>221556</t>
+          <t>221541</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>حازم اسامه شحاده</t>
+          <t xml:space="preserve">ساره محمد محمود مالك </t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -4015,19 +4015,19 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>221560</t>
+          <t>221542</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>شام خالد درويش</t>
+          <t xml:space="preserve">اريام عمر الخضير  </t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4042,19 +4042,19 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221547</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t xml:space="preserve">على محسن على عبدالكريم </t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4069,19 +4069,19 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>221581</t>
+          <t>221548</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>عمار بدرالدين محمد نور حمد</t>
+          <t>مريم احمد صباغ</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4096,19 +4096,19 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>221552</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>شهد صلاح جعفر الشيخ ادريس</t>
+          <t xml:space="preserve">عمر سامي زكريا الغرابلي   </t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4123,19 +4123,19 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221556</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>حازم اسامه شحاده</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4150,19 +4150,19 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>221591</t>
+          <t>221560</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>فراس نجم الدين فضل احمد</t>
+          <t>شام خالد درويش</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4177,19 +4177,19 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221568</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>عبدالله الصادق عبدالله محمد</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4204,19 +4204,19 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221581</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4231,19 +4231,19 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>221595</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>عثمان عبد الله فرحان</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221585</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>محمد احمد حسان عبد الهادى</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4285,19 +4285,19 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221591</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>فراس نجم الدين فضل احمد</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4312,19 +4312,19 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221592</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>مهدي عارف عمر حبابه</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4339,19 +4339,19 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221594</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>مصطفى احمد حوا</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4366,19 +4366,19 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>221615</t>
+          <t>221595</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>علي خالد محمد ابو عيده</t>
+          <t>عثمان عبد الله فرحان</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4393,19 +4393,19 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>221616</t>
+          <t>221596</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>محمد عمر عبدالباري عبدالواحد</t>
+          <t>طيف عبود بشير محمد</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4420,19 +4420,19 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221603</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>محمد نصرالدين محمد خليفة</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4447,19 +4447,19 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4474,19 +4474,19 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221608</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>فريد محمد فراس قاوجي</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4501,19 +4501,19 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221615</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ريم احمد غزال </t>
+          <t>علي خالد محمد ابو عيده</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4528,19 +4528,19 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>221633</t>
+          <t>221616</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>نمارق شيخ الدين محمد ادم</t>
+          <t>محمد عمر عبدالباري عبدالواحد</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4555,19 +4555,19 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221621</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4582,19 +4582,19 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>221642</t>
+          <t>221624</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>فاطمة محمد عبد الله عبد الرازق</t>
+          <t>ميسم الزاكى الياس احمدون</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4609,19 +4609,19 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>221652</t>
+          <t>221627</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>يامن احمد محمد خالد صب لبن</t>
+          <t>جودى عدنان رسلان</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4636,19 +4636,19 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>221655</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">أماني شوقي حسن احمد </t>
+          <t xml:space="preserve">ريم احمد غزال </t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4663,19 +4663,19 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>221633</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد احمد العطا حمد </t>
+          <t>نمارق شيخ الدين محمد ادم</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4690,19 +4690,19 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>221658</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>روين محمد أحمد بورجي</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4717,19 +4717,19 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>221672</t>
+          <t>221642</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>نهى النزير عبدالرحمن الجعلي</t>
+          <t>فاطمة محمد عبد الله عبد الرازق</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4744,19 +4744,19 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>221673</t>
+          <t>221652</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>عنود فيصل على حمد</t>
+          <t>يامن احمد محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4771,19 +4771,19 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>221676</t>
+          <t>221655</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>ساميه أحمد محمد طيطي</t>
+          <t xml:space="preserve">أماني شوقي حسن احمد </t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4798,19 +4798,19 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>221677</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">شاكر خالد قسم الله الجيلانى  </t>
+          <t xml:space="preserve">محمد احمد العطا حمد </t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4825,19 +4825,19 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>221683</t>
+          <t>221658</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>عمرو وليد خالد كليم</t>
+          <t>روين محمد أحمد بورجي</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4852,19 +4852,19 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>221686</t>
+          <t>221672</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسماعيل كمال احمرو </t>
+          <t>نهى النزير عبدالرحمن الجعلي</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4879,19 +4879,19 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>221688</t>
+          <t>221673</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">سليمان اياد سليمان الفليت </t>
+          <t>عنود فيصل على حمد</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4906,19 +4906,19 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>221689</t>
+          <t>221674</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>هادي عيسى مهدي حسن محمد القبيطي</t>
+          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4933,19 +4933,19 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>221694</t>
+          <t>221676</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>محمد جمال محمد حاج</t>
+          <t>ساميه أحمد محمد طيطي</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4960,19 +4960,19 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>221697</t>
+          <t>221677</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">زينب عبدالغفور محمد عبدالله </t>
+          <t xml:space="preserve">شاكر خالد قسم الله الجيلانى  </t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4987,19 +4987,19 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>221700</t>
+          <t>221683</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ناصر محمد ناصر علي </t>
+          <t>عمرو وليد خالد كليم</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>221701</t>
+          <t>221686</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>محمود سليم سليمان زبن</t>
+          <t xml:space="preserve">عبد الرحمن اسماعيل كمال احمرو </t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5041,19 +5041,19 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>221702</t>
+          <t>221688</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>محمود ابراهيم توفيق أبو هجرس</t>
+          <t xml:space="preserve">سليمان اياد سليمان الفليت </t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5068,19 +5068,19 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>221706</t>
+          <t>221689</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>على محمد على بابكر</t>
+          <t>هادي عيسى مهدي حسن محمد القبيطي</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5095,19 +5095,19 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>221707</t>
+          <t>221694</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
+          <t>محمد جمال محمد حاج</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5122,19 +5122,19 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>221709</t>
+          <t>221697</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>يقين ناصر الشريف</t>
+          <t xml:space="preserve">زينب عبدالغفور محمد عبدالله </t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5149,19 +5149,19 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221700</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t xml:space="preserve">ناصر محمد ناصر علي </t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5176,19 +5176,19 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221701</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
+          <t>محمود سليم سليمان زبن</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5203,19 +5203,19 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221702</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>محمود ابراهيم توفيق أبو هجرس</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5230,19 +5230,19 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221706</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">على الحسن </t>
+          <t>على محمد على بابكر</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5257,19 +5257,19 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>221719</t>
+          <t>221707</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان محمد فتحى محمد </t>
+          <t xml:space="preserve">يمنى فيصل محمد عبدون  </t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5284,19 +5284,19 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بتول باسم قاووق </t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5311,19 +5311,19 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسين احمد حسين الحسن </t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5338,19 +5338,19 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>221740</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>عبد الرزاق مهد يوسف</t>
+          <t xml:space="preserve">بتول ابراهيم يوسف الزيناتي  </t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5365,19 +5365,19 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5392,19 +5392,19 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t xml:space="preserve">على الحسن </t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5419,19 +5419,19 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221719</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
+          <t xml:space="preserve">مروان محمد فتحى محمد </t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>221757</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بشرى فكري محمد احمد الحميدي </t>
+          <t xml:space="preserve">بتول باسم قاووق </t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5468,24 +5468,24 @@
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>221761</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">كمال رامى كمال عبد العال </t>
+          <t xml:space="preserve">حسين احمد حسين الحسن </t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5495,24 +5495,24 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>221763</t>
+          <t>221740</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>مهند فراس الاديب</t>
+          <t>عبد الرزاق مهد يوسف</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5522,24 +5522,24 @@
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>221766</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>خالد وليد سالم</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5549,24 +5549,24 @@
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>221767</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>وعد صديق عبدالرحمن يحى</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5576,24 +5576,24 @@
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>221773</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>محمود عبد السلام الشيخ</t>
+          <t xml:space="preserve">نبا ابراهيم الزعبى  </t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5603,24 +5603,24 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>B1D</t>
+          <t>B1C</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>221775</t>
+          <t>221757</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر محمد الحايك</t>
+          <t xml:space="preserve">بشرى فكري محمد احمد الحميدي </t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5635,19 +5635,19 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>221781</t>
+          <t>221761</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>نون عبدالله فضل ادريس</t>
+          <t xml:space="preserve">كمال رامى كمال عبد العال </t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5662,19 +5662,19 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>221784</t>
+          <t>221763</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>روان الجيلى خضر محمد</t>
+          <t>مهند فراس الاديب</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5689,19 +5689,19 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>221786</t>
+          <t>221766</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
+          <t>خالد وليد سالم</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5716,19 +5716,19 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>221797</t>
+          <t>221767</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>محمد يوسف محمود زهري</t>
+          <t>وعد صديق عبدالرحمن يحى</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5743,19 +5743,19 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>221803</t>
+          <t>221773</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>يحيى ابراهيم محمد الدراغمه</t>
+          <t>محمود عبد السلام الشيخ</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>221805</t>
+          <t>221775</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>ربا باسبار نورالدين عثمان</t>
+          <t>عبد الرحمن عمر محمد الحايك</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5797,19 +5797,19 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>221809</t>
+          <t>221781</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>زياد محمد حسنى عليوه</t>
+          <t>نون عبدالله فضل ادريس</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5824,19 +5824,19 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>221813</t>
+          <t>221784</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>شمائل عبدالله مصطفي محمد الحسين</t>
+          <t>روان الجيلى خضر محمد</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5851,19 +5851,19 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>221816</t>
+          <t>221786</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رغد محمد عبدالملك الضحياني </t>
+          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5878,19 +5878,19 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>221817</t>
+          <t>221797</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن حسين سيد احمد</t>
+          <t>محمد يوسف محمود زهري</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5905,19 +5905,19 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>221830</t>
+          <t>221803</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>مهجة خالد الضو مصطفى</t>
+          <t>يحيى ابراهيم محمد الدراغمه</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5932,19 +5932,19 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>221832</t>
+          <t>221805</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صفيه عبدالله حامد بابكر </t>
+          <t>ربا باسبار نورالدين عثمان</t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5959,19 +5959,19 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>221834</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد مصطفى صالحه </t>
+          <t>زياد محمد حسنى عليوه</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5986,19 +5986,19 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>221841</t>
+          <t>221813</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>جميل تمام سيجري</t>
+          <t>شمائل عبدالله مصطفي محمد الحسين</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -6013,19 +6013,19 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>221844</t>
+          <t>221816</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>عمر الخطاب عمر محمد احمد</t>
+          <t xml:space="preserve">رغد محمد عبدالملك الضحياني </t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6040,19 +6040,19 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>221847</t>
+          <t>221817</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>عمر خالد ياسين الرحاحله</t>
+          <t>عبد الرحمن حسين سيد احمد</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6067,19 +6067,19 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>221854</t>
+          <t>221830</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>محمد احمد يحيى الارحبي</t>
+          <t>مهجة خالد الضو مصطفى</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6094,19 +6094,19 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>221859</t>
+          <t>221832</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>ايلاف يوسف محمد احمد</t>
+          <t xml:space="preserve">صفيه عبدالله حامد بابكر </t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6121,19 +6121,19 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>221860</t>
+          <t>221834</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>حمزه صالح ابراهيم ابو شاويش</t>
+          <t xml:space="preserve">خالد مصطفى صالحه </t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6148,19 +6148,19 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>221841</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>جميل تمام سيجري</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6175,19 +6175,19 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>221872</t>
+          <t>221844</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف الصادق محمد حسن </t>
+          <t>عمر الخطاب عمر محمد احمد</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6202,19 +6202,19 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>221878</t>
+          <t>221847</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>ميسم الصادق يعقوب احمد</t>
+          <t>عمر خالد ياسين الرحاحله</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6229,19 +6229,19 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>221880</t>
+          <t>221853</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>دعاء صلاح محمد حسن</t>
+          <t xml:space="preserve">موسى تاج الدين موسى ادريس  </t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6256,19 +6256,19 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>221885</t>
+          <t>221854</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>جهاد عمر سويد</t>
+          <t>محمد احمد يحيى الارحبي</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6283,19 +6283,19 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>221891</t>
+          <t>221859</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>ماجد عبد الرحمن تركى رواشدة</t>
+          <t>ايلاف يوسف محمد احمد</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6310,19 +6310,19 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>221896</t>
+          <t>221860</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بيان ادم احمد على  برشى </t>
+          <t>حمزه صالح ابراهيم ابو شاويش</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6337,19 +6337,19 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>221913</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>رشا حسن محمد حاج محمد احمد</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6364,19 +6364,19 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>221872</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t xml:space="preserve">رهف الصادق محمد حسن </t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6391,19 +6391,19 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>221877</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t>احلام مجددى</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6418,19 +6418,19 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>221956</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">خالد محمد ترياقى </t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6445,19 +6445,19 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6472,19 +6472,19 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6499,19 +6499,19 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>221891</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t>ماجد عبد الرحمن تركى رواشدة</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6526,19 +6526,19 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>221896</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابرار كمال محمد عمر </t>
+          <t xml:space="preserve">بيان ادم احمد على  برشى </t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6553,19 +6553,19 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>221913</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رنا محمد مصطفى على </t>
+          <t>رشا حسن محمد حاج محمد احمد</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6580,19 +6580,19 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6607,19 +6607,19 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>222048</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>المعتصم بالله مصطفى محمد على</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
+          <t xml:space="preserve">خالد محمد ترياقى </t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6661,19 +6661,19 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6688,19 +6688,19 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
+          <t xml:space="preserve">ياسمين بابكر موسى بابكر </t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6715,19 +6715,19 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6742,19 +6742,19 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>222075</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
+          <t xml:space="preserve">ابرار كمال محمد عمر </t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6769,19 +6769,19 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
+          <t xml:space="preserve">رنا محمد مصطفى على </t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6796,19 +6796,19 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>222080</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن اسد الله حامد احمد </t>
+          <t xml:space="preserve">منذر عبد الله بلال مضوى </t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6823,19 +6823,19 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>222081</t>
+          <t>222009</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>عفيف عبد الجبار العبيد الصديق</t>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6850,19 +6850,19 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>222085</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مهند معاوية صالح جقدولة </t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6877,19 +6877,19 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>222089</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">نزار باسل عبد السميع جوده </t>
+          <t xml:space="preserve">هاجر طة عبد الحميد طه </t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6904,19 +6904,19 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>222091</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>سالم فايز سالم البلوى</t>
+          <t xml:space="preserve">عثمان عبد الخالق عثمان عبده </t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6931,19 +6931,19 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>222094</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">كريم برعى مكى برعى </t>
+          <t xml:space="preserve">محمد المصطفى ادم داؤد على </t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6958,19 +6958,19 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>222096</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>محمود النميرى محمود ابراهيم</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6985,19 +6985,19 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>222102</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>محمد حسن حمدو حسن</t>
+          <t xml:space="preserve">النذير احمد داؤد اسو  </t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -7012,19 +7012,19 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>222106</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>عمرو ياسر عثمان عبد المجيد</t>
+          <t xml:space="preserve">صهيب عبد المنعم طه عثمان </t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7039,19 +7039,19 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>222111</t>
+          <t>222080</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ليازيا الفاتح صالح ادريس </t>
+          <t xml:space="preserve">عبد الرحمن اسد الله حامد احمد </t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7066,19 +7066,19 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>222123</t>
+          <t>222081</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>عبد الله العوض سليمان بابكر</t>
+          <t>عفيف عبد الجبار العبيد الصديق</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7093,19 +7093,19 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>201577</t>
+          <t>222083</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> عزام عبد الله على حسن الحكمى</t>
+          <t>محمد المجتبى فخر الدين بلال خليل</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7115,24 +7115,24 @@
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>210288</t>
+          <t>222085</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>عمرو اشرف جابر رمضان</t>
+          <t xml:space="preserve">مهند معاوية صالح جقدولة </t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7142,24 +7142,24 @@
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>210306</t>
+          <t>222089</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>احمد اشرف احمد رجب غزال</t>
+          <t xml:space="preserve">نزار باسل عبد السميع جوده </t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7169,24 +7169,24 @@
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>210319</t>
+          <t>222091</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>احمد سامح جمعه عبد المجيد محمد</t>
+          <t>سالم فايز سالم البلوى</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7196,24 +7196,24 @@
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>210333</t>
+          <t>222094</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد عبد الجواد مندور هاشم</t>
+          <t xml:space="preserve">كريم برعى مكى برعى </t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7223,24 +7223,24 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>210334</t>
+          <t>222096</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>احمد محمد عبد المجيد عبد العاطي</t>
+          <t>محمود النميرى محمود ابراهيم</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7250,24 +7250,24 @@
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>210340</t>
+          <t>222098</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>احمد منتصر سيد منتصر احمد</t>
+          <t xml:space="preserve">نعم عمر محمد عثمان </t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7277,24 +7277,24 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>210385</t>
+          <t>222102</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>ايمان طارق مصطفى سيد احمد</t>
+          <t>محمد حسن حمدو حسن</t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">
@@ -7304,24 +7304,24 @@
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>210387</t>
+          <t>222106</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>ايمان محمد يوسف محمد</t>
+          <t>عمرو ياسر عثمان عبد المجيد</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -7331,24 +7331,24 @@
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>210401</t>
+          <t>222111</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>بافلى عماد غبريال مترى</t>
+          <t xml:space="preserve">ليازيا الفاتح صالح ادريس </t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
@@ -7358,24 +7358,24 @@
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>210421</t>
+          <t>222123</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>توماس مرجان فوزى شكر الله</t>
+          <t>عبد الله العوض سليمان بابكر</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -7385,24 +7385,24 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>B1E</t>
+          <t>B1D</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>210435</t>
+          <t>201577</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>حسن محمد حسن مرسى</t>
+          <t xml:space="preserve"> عزام عبد الله على حسن الحكمى</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -7417,19 +7417,19 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>210438</t>
+          <t>210288</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>حسينى طارق حسينى محمد الطويل</t>
+          <t>عمرو اشرف جابر رمضان</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -7444,19 +7444,19 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>210509</t>
+          <t>210301</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>شروق محمود محمد محمود فرحات</t>
+          <t>ابانوب ايمن جميل وديع</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
@@ -7471,19 +7471,19 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>210513</t>
+          <t>210306</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>شهد عبد الرحمن احمد الشاذلى</t>
+          <t>احمد اشرف احمد رجب غزال</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -7498,19 +7498,19 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>210516</t>
+          <t>210319</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>شرين سيف النصر</t>
+          <t>احمد سامح جمعه عبد المجيد محمد</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -7525,19 +7525,19 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>210558</t>
+          <t>210333</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>على عبد الرؤف محمد بكرى</t>
+          <t>احمد محمد عبد الجواد مندور هاشم</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7552,19 +7552,19 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>210621</t>
+          <t>210334</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
@@ -7579,19 +7579,19 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>210686</t>
+          <t>210340</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
+          <t>احمد منتصر سيد منتصر احمد</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7606,19 +7606,19 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>210703</t>
+          <t>210354</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>منى ذو الهمه محمد الطبلاوى غنيم</t>
+          <t>اسراء حسني مصطفى احمد</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -7633,19 +7633,19 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>210727</t>
+          <t>210385</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>ندى احمد عبد الله احمد عبد المجيد</t>
+          <t>ايمان طارق مصطفى سيد احمد</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7660,19 +7660,19 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>210762</t>
+          <t>210387</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>هند السيد محمد السعيد سيد احمد</t>
+          <t>ايمان محمد يوسف محمد</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -7687,19 +7687,19 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>210799</t>
+          <t>210401</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>حسن ممدوح حسن صغير</t>
+          <t>بافلى عماد غبريال مترى</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
@@ -7714,19 +7714,19 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>210809</t>
+          <t>210421</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>خطاب خالد هادى الوادعى</t>
+          <t>توماس مرجان فوزى شكر الله</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -7741,19 +7741,19 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>210828</t>
+          <t>210435</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>Manal Hamid Nour Mahamat Terab</t>
+          <t>حسن محمد حسن مرسى</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
@@ -7768,19 +7768,19 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>210832</t>
+          <t>210438</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>عصام الدين عادل محمد على</t>
+          <t>حسينى طارق حسينى محمد الطويل</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -7795,19 +7795,19 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>210836</t>
+          <t>210509</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>عمه ديد درار</t>
+          <t>شروق محمود محمد محمود فرحات</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
@@ -7822,19 +7822,19 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>210839</t>
+          <t>210513</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>شكرى محمد حاد</t>
+          <t>شهد عبد الرحمن احمد الشاذلى</t>
         </is>
       </c>
       <c r="C273" s="4" t="inlineStr">
@@ -7849,19 +7849,19 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>210858</t>
+          <t>210516</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t>محمد ابراهيم احمد عرجه</t>
+          <t>شرين سيف النصر</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
@@ -7876,19 +7876,19 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>210880</t>
+          <t>210558</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>نور الهدى ماجد عبد الامير</t>
+          <t>على عبد الرؤف محمد بكرى</t>
         </is>
       </c>
       <c r="C275" s="4" t="inlineStr">
@@ -7903,19 +7903,19 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>210887</t>
+          <t>210621</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد الله عبد القادر محمد</t>
+          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
@@ -7930,19 +7930,19 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
-          <t>210892</t>
+          <t>210686</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>Yusof Barghouty</t>
+          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
         </is>
       </c>
       <c r="C277" s="4" t="inlineStr">
@@ -7957,19 +7957,19 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>210902</t>
+          <t>210703</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>عبير ميسره محى الدين قاسم</t>
+          <t>منى ذو الهمه محمد الطبلاوى غنيم</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
@@ -7984,19 +7984,19 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
         <is>
-          <t>210905</t>
+          <t>210727</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>ايمن خالد خليل الرجوب</t>
+          <t>ندى احمد عبد الله احمد عبد المجيد</t>
         </is>
       </c>
       <c r="C279" s="4" t="inlineStr">
@@ -8011,19 +8011,19 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>210910</t>
+          <t>210762</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>ابو بكر عبد الرحيم سنجك محمد</t>
+          <t>هند السيد محمد السعيد سيد احمد</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
@@ -8038,19 +8038,19 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
         <is>
-          <t>210921</t>
+          <t>210799</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>براء علاء محمد البيوك</t>
+          <t>حسن ممدوح حسن صغير</t>
         </is>
       </c>
       <c r="C281" s="4" t="inlineStr">
@@ -8065,19 +8065,19 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>210927</t>
+          <t>210809</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>ايمان فؤاد حامد ابو حمره</t>
+          <t>خطاب خالد هادى الوادعى</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
@@ -8092,19 +8092,19 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
         <is>
-          <t>210939</t>
+          <t>210828</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>خليل جبر احمد على العبيى</t>
+          <t>Manal Hamid Nour Mahamat Terab</t>
         </is>
       </c>
       <c r="C283" s="4" t="inlineStr">
@@ -8119,19 +8119,19 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>210941</t>
+          <t>210832</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مصطفى امين غانم  </t>
+          <t>عصام الدين عادل محمد على</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -8146,19 +8146,19 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
         <is>
-          <t>210947</t>
+          <t>210836</t>
         </is>
       </c>
       <c r="B285" s="4" t="inlineStr">
         <is>
-          <t>مريم بنت يعقوب بن يوسف الحمود</t>
+          <t>عمه ديد درار</t>
         </is>
       </c>
       <c r="C285" s="4" t="inlineStr">
@@ -8173,19 +8173,19 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>210965</t>
+          <t>210839</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>همام احمد خليل</t>
+          <t>شكرى محمد حاد</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -8200,19 +8200,19 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
         <is>
-          <t>210982</t>
+          <t>210840</t>
         </is>
       </c>
       <c r="B287" s="4" t="inlineStr">
         <is>
-          <t>عمر نصر الدين محمد خالد صب لبن</t>
+          <t>يونس دينى اسماعيل</t>
         </is>
       </c>
       <c r="C287" s="4" t="inlineStr">
@@ -8227,19 +8227,19 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>210984</t>
+          <t>210858</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>وسيم رزق محمد سهمود</t>
+          <t>محمد ابراهيم احمد عرجه</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -8254,19 +8254,19 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="inlineStr">
         <is>
-          <t>210994</t>
+          <t>210880</t>
         </is>
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور ماجد فايز ابو جامع </t>
+          <t>نور الهدى ماجد عبد الامير</t>
         </is>
       </c>
       <c r="C289" s="4" t="inlineStr">
@@ -8281,19 +8281,19 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>211002</t>
+          <t>210883</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>منيه خالد الشيخ حاج محمود</t>
+          <t>احمد صلاح الدين عابدين صالح</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -8308,19 +8308,19 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="4" t="inlineStr">
         <is>
-          <t>211003</t>
+          <t>210887</t>
         </is>
       </c>
       <c r="B291" s="4" t="inlineStr">
         <is>
-          <t>محمد عادل محمد عبد الله العريفى</t>
+          <t>احمد عبد الله عبد القادر محمد</t>
         </is>
       </c>
       <c r="C291" s="4" t="inlineStr">
@@ -8335,19 +8335,19 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>211024</t>
+          <t>210892</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>جاسم محمد المحيمد الخلف</t>
+          <t>Yusof Barghouty</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -8362,19 +8362,19 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
         <is>
-          <t>211025</t>
+          <t>210902</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>شموخ على محمد حمادى</t>
+          <t>عبير ميسره محى الدين قاسم</t>
         </is>
       </c>
       <c r="C293" s="4" t="inlineStr">
@@ -8389,19 +8389,19 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>211029</t>
+          <t>210905</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن الضو النور على</t>
+          <t>ايمن خالد خليل الرجوب</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -8416,19 +8416,19 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="4" t="inlineStr">
         <is>
-          <t>211044</t>
+          <t>210910</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>لجين فتحى عدلى محمد عبد الله</t>
+          <t>ابو بكر عبد الرحيم سنجك محمد</t>
         </is>
       </c>
       <c r="C295" s="4" t="inlineStr">
@@ -8443,19 +8443,19 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>211048</t>
+          <t>210921</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">فادى نواف الحريرى </t>
+          <t>براء علاء محمد البيوك</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -8470,19 +8470,19 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
         <is>
-          <t>211056</t>
+          <t>210927</t>
         </is>
       </c>
       <c r="B297" s="4" t="inlineStr">
         <is>
-          <t>محمد وداد احمد وداد فرج</t>
+          <t>ايمان فؤاد حامد ابو حمره</t>
         </is>
       </c>
       <c r="C297" s="4" t="inlineStr">
@@ -8497,19 +8497,19 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>211060</t>
+          <t>210937</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>مروه فرحان الداموك</t>
+          <t>عبد العزيز ناصر الجهمانى</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -8524,19 +8524,19 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
         <is>
-          <t>211063</t>
+          <t>210939</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>مايا مراد موسى عبد القادر</t>
+          <t>خليل جبر احمد على العبيى</t>
         </is>
       </c>
       <c r="C299" s="4" t="inlineStr">
@@ -8551,19 +8551,19 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>211069</t>
+          <t>210941</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رياض محمد صافى </t>
+          <t xml:space="preserve">مصطفى امين غانم  </t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
@@ -8578,19 +8578,19 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="4" t="inlineStr">
         <is>
-          <t>211073</t>
+          <t>210947</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>حنين ايمن فؤاد دغباج</t>
+          <t>مريم بنت يعقوب بن يوسف الحمود</t>
         </is>
       </c>
       <c r="C301" s="4" t="inlineStr">
@@ -8605,19 +8605,19 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>211934</t>
+          <t>210965</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>زيدون احمد محمود درادكه</t>
+          <t>همام احمد خليل</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
@@ -8632,19 +8632,19 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
         <is>
-          <t>220467</t>
+          <t>210982</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>خليل صالح الحريري</t>
+          <t>عمر نصر الدين محمد خالد صب لبن</t>
         </is>
       </c>
       <c r="C303" s="4" t="inlineStr">
@@ -8659,19 +8659,19 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>221082</t>
+          <t>210984</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>جنى ايمن احمد شديد</t>
+          <t>وسيم رزق محمد سهمود</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
@@ -8686,19 +8686,19 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="inlineStr">
         <is>
-          <t>221105</t>
+          <t>210994</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>ديفيد ادوار شكري برتلة رزق</t>
+          <t xml:space="preserve">نور ماجد فايز ابو جامع </t>
         </is>
       </c>
       <c r="C305" s="4" t="inlineStr">
@@ -8713,19 +8713,19 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>221142</t>
+          <t>211002</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>سيف الدين وليد محمد على</t>
+          <t>منيه خالد الشيخ حاج محمود</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
@@ -8740,34 +8740,547 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="4" t="inlineStr">
         <is>
+          <t>211003</t>
+        </is>
+      </c>
+      <c r="B307" s="4" t="inlineStr">
+        <is>
+          <t>محمد عادل محمد عبد الله العريفى</t>
+        </is>
+      </c>
+      <c r="C307" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D307" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E307" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="inlineStr">
+        <is>
+          <t>211005</t>
+        </is>
+      </c>
+      <c r="B308" s="3" t="inlineStr">
+        <is>
+          <t>محمد باسم محمد على نويات</t>
+        </is>
+      </c>
+      <c r="C308" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D308" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="4" t="inlineStr">
+        <is>
+          <t>211024</t>
+        </is>
+      </c>
+      <c r="B309" s="4" t="inlineStr">
+        <is>
+          <t>جاسم محمد المحيمد الخلف</t>
+        </is>
+      </c>
+      <c r="C309" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D309" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E309" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="inlineStr">
+        <is>
+          <t>211025</t>
+        </is>
+      </c>
+      <c r="B310" s="3" t="inlineStr">
+        <is>
+          <t>شموخ على محمد حمادى</t>
+        </is>
+      </c>
+      <c r="C310" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D310" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="4" t="inlineStr">
+        <is>
+          <t>211029</t>
+        </is>
+      </c>
+      <c r="B311" s="4" t="inlineStr">
+        <is>
+          <t>عبد الرحمن الضو النور على</t>
+        </is>
+      </c>
+      <c r="C311" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D311" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E311" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="inlineStr">
+        <is>
+          <t>211044</t>
+        </is>
+      </c>
+      <c r="B312" s="3" t="inlineStr">
+        <is>
+          <t>لجين فتحى عدلى محمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C312" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D312" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="inlineStr">
+        <is>
+          <t>211048</t>
+        </is>
+      </c>
+      <c r="B313" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فادى نواف الحريرى </t>
+        </is>
+      </c>
+      <c r="C313" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D313" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E313" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="inlineStr">
+        <is>
+          <t>211056</t>
+        </is>
+      </c>
+      <c r="B314" s="3" t="inlineStr">
+        <is>
+          <t>محمد وداد احمد وداد فرج</t>
+        </is>
+      </c>
+      <c r="C314" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D314" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E314" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="inlineStr">
+        <is>
+          <t>211060</t>
+        </is>
+      </c>
+      <c r="B315" s="4" t="inlineStr">
+        <is>
+          <t>مروه فرحان الداموك</t>
+        </is>
+      </c>
+      <c r="C315" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D315" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E315" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="inlineStr">
+        <is>
+          <t>211063</t>
+        </is>
+      </c>
+      <c r="B316" s="3" t="inlineStr">
+        <is>
+          <t>مايا مراد موسى عبد القادر</t>
+        </is>
+      </c>
+      <c r="C316" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D316" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E316" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="4" t="inlineStr">
+        <is>
+          <t>211069</t>
+        </is>
+      </c>
+      <c r="B317" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">احمد رياض محمد صافى </t>
+        </is>
+      </c>
+      <c r="C317" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D317" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E317" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="inlineStr">
+        <is>
+          <t>211073</t>
+        </is>
+      </c>
+      <c r="B318" s="3" t="inlineStr">
+        <is>
+          <t>حنين ايمن فؤاد دغباج</t>
+        </is>
+      </c>
+      <c r="C318" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D318" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E318" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="4" t="inlineStr">
+        <is>
+          <t>211934</t>
+        </is>
+      </c>
+      <c r="B319" s="4" t="inlineStr">
+        <is>
+          <t>زيدون احمد محمود درادكه</t>
+        </is>
+      </c>
+      <c r="C319" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D319" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E319" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="inlineStr">
+        <is>
+          <t>220467</t>
+        </is>
+      </c>
+      <c r="B320" s="3" t="inlineStr">
+        <is>
+          <t>خليل صالح الحريري</t>
+        </is>
+      </c>
+      <c r="C320" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D320" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="inlineStr">
+        <is>
+          <t>221082</t>
+        </is>
+      </c>
+      <c r="B321" s="4" t="inlineStr">
+        <is>
+          <t>جنى ايمن احمد شديد</t>
+        </is>
+      </c>
+      <c r="C321" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D321" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E321" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="inlineStr">
+        <is>
+          <t>221105</t>
+        </is>
+      </c>
+      <c r="B322" s="3" t="inlineStr">
+        <is>
+          <t>ديفيد ادوار شكري برتلة رزق</t>
+        </is>
+      </c>
+      <c r="C322" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D322" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="4" t="inlineStr">
+        <is>
+          <t>221142</t>
+        </is>
+      </c>
+      <c r="B323" s="4" t="inlineStr">
+        <is>
+          <t>سيف الدين وليد محمد على</t>
+        </is>
+      </c>
+      <c r="C323" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D323" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E323" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="inlineStr">
+        <is>
           <t>221155</t>
         </is>
       </c>
-      <c r="B307" s="4" t="inlineStr">
+      <c r="B324" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الرحمن محمد سيد حنتيرة </t>
         </is>
       </c>
-      <c r="C307" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D307" s="4" t="inlineStr">
+      <c r="C324" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D324" s="3" t="inlineStr">
         <is>
           <t>B1E</t>
         </is>
       </c>
-      <c r="E307" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data.xlsx</t>
+      <c r="E324" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_special_internal_1_reference_data OLD.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="4" t="inlineStr">
+        <is>
+          <t>223001</t>
+        </is>
+      </c>
+      <c r="B325" s="4" t="inlineStr">
+        <is>
+          <t>زينه هانى فاروق محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C325" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D325" s="4" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E325" s="4" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="inlineStr">
+        <is>
+          <t>223002</t>
+        </is>
+      </c>
+      <c r="B326" s="3" t="inlineStr">
+        <is>
+          <t>يسرا ضياء الدين نادى محمود الحينى</t>
+        </is>
+      </c>
+      <c r="C326" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D326" s="3" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="inlineStr">
+        <is>
+          <t>kawthar new.xlsx</t>
         </is>
       </c>
     </row>
